--- a/JavaBooks.xlsx
+++ b/JavaBooks.xlsx
@@ -166,13 +166,14 @@
     <comment ref="AA4" authorId="1">
       <text>
         <t xml:space="preserve">Óraszám: 168.0
-Tényező: valami 0.5
 </t>
       </text>
     </comment>
     <comment ref="AB4" authorId="1">
       <text>
-        <t xml:space="preserve">Óraszám: 168.0
+        <t xml:space="preserve">Óraszám: 20.0
+Tényező: asdvd 0.9
+Tényező: sdfvsdf 0.5
 </t>
       </text>
     </comment>
@@ -496,869 +497,899 @@
     </comment>
     <comment ref="C6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0178-SMT Demand: 20 Idő: 0.67
-PN: INFPBA230-0158-SMT Demand: 430 Idő: 1.1
-PN: INFPBA230-0183-SMT Demand: 430 Idő: 2.22
-</t>
-      </text>
-    </comment>
-    <comment ref="AC6" authorId="1">
-      <text>
-        <t xml:space="preserve">PN: INFPBA230-0109-SMT Demand: 3 Idő: 0.1
-PN: INFPBA230-0118-SMT Demand: 51 Idő: 1.58
-PN: INFPBA230-0118-SMT Demand: 49 Idő: 1.52
-PN: INFPBA230-0157-SMT Demand: 15 Idő: 0.14
-PN: INFPBA230-0158-SMT Demand: 125 Idő: 0.32
-PN: INFPBA230-0181-SMT Demand: 2 Idő: 0.07
-PN: INFPBA230-0181-SMT Demand: 1 Idő: 0.04
-PN: INFPBA230-0183-SMT Demand: 151 Idő: 0.78
-PN: INFPBA230-0185-SMT Demand: 38 Idő: 0.3
-PN: INFPBA230-0188-SMT Demand: 31 Idő: 1.34
-PN: INFPBA230-0202-SMT Demand: 4 Idő: 0.02
-PN: INFPBA230-0203-SMT Demand: 1 Idő: 0
-PN: INFPBA230-0203-SMT Demand: 27 Idő: 0.12
-PN: INFPBA300-0555-201-SMT Demand: 1 Idő: 0.02
-PN: INFPBA300-0558-201-SMT Demand: 85 Idő: 3.03
-PN: INFPBA300-0559-201-SMT Demand: 83 Idő: 1.19
-PN: INFPBA300-0562-201-SMT Demand: 7 Idő: 0.22
-PN: INFPBA300-0565-202-SMT Demand: 19 Idő: 0.63
-PN: INFPBA300-0565-202-SMT Demand: 1 Idő: 0.03
-PN: INFPBA300-0573-201-SMT Demand: 71 Idő: 2.16
-PN: INFPBA300-0573-201-SMT Demand: 5 Idő: 0.15
-PN: INFPBA300-0599-201-SMT Demand: 34 Idő: 0.81
-PN: INFPBA300-0616-201-SMT Demand: 37 Idő: 0.86
-PN: INFPBA300-0630-201-SMT Demand: 20 Idő: 0.33
-PN: INFPBA230-0158-SMT Demand: 323 Idő: 0.83
-PN: INFPBA230-0183-SMT Demand: 252 Idő: 1.3
-PN: INFPBA300-0599-201-SMT Demand: 2 Idő: 0.05
-PN: INFPBA300-0630-201-SMT Demand: 2 Idő: 0.03
+        <t xml:space="preserve">PN: INFPBA230-0178-SMT Demand: 20 Idő: 1.29
 </t>
       </text>
     </comment>
     <comment ref="AD6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0178-SMT Demand: 35 Idő: 1.18
-PN: INFPBA230-0202-SMT Demand: 17 Idő: 0.09
-PN: INFPBA230-0203-SMT Demand: 84 Idő: 0.37
-PN: INFPBA230-0204-SMT Demand: 30 Idő: 0.03
+        <t xml:space="preserve">PN: INFPBA230-0109-SMT Demand: 3 Idő: 0.62
+PN: INFPBA230-0118-SMT Demand: 100 Idő: 4.15
+PN: INFPBA230-0158-SMT Demand: 350 Idő: 1.55
+PN: INFPBA230-0181-SMT Demand: 2 Idő: 0.59
+PN: INFPBA230-0181-SMT Demand: 1 Idő: 0.54
+PN: INFPBA230-0183-SMT Demand: 340 Idő: 2.57
+PN: INFPBA230-0185-SMT Demand: 38 Idő: 0.85
+PN: INFPBA230-0188-SMT Demand: 31 Idő: 2.07
+PN: INFPBA230-0202-SMT Demand: 21 Idő: 0.63
+PN: INFPBA230-0203-SMT Demand: 28 Idő: 0.64
+PN: INFPBA230-0203-SMT Demand: 84 Idő: 0.93
+PN: INFPBA230-0204-SMT Demand: 30 Idő: 0.54
+PN: INFPBA300-0555-201-SMT Demand: 1 Idő: 0.53
+PN: INFPBA300-0558-201-SMT Demand: 85 Idő: 4.06
+PN: INFPBA300-0559-201-SMT Demand: 83 Idő: 1.9
+PN: INFPBA300-0562-201-SMT Demand: 7 Idő: 0.76
+PN: INFPBA300-0573-201-SMT Demand: 67 Idő: 2.9
+PN: INFPBA300-0573-201-SMT Demand: 3 Idő: 0.61
+PN: INFPBA300-0599-201-SMT Demand: 30 Idő: 1.34
+PN: INFPBA300-0599-201-SMT Demand: 2 Idő: 0.56
+PN: INFPBA300-0599-201-SMT Demand: 4 Idő: 0.61
+PN: INFPBA300-0616-201-SMT Demand: 37 Idő: 1.51
+PN: INFPBA300-0630-201-SMT Demand: 20 Idő: 0.88
+PN: INFPBA300-0630-201-SMT Demand: 2 Idő: 0.54
+PN: INFPBA230-0158-SMT Demand: 102 Idő: 0.81
+PN: INFPBA230-0183-SMT Demand: 66 Idő: 0.9
+PN: INFPBA300-0568-201-SMT Demand: 11 Idő: 0.55
+PN: INFPBA230-0122-SMT Demand: 30 Idő: 1.58
+PN: INFPBA230-0157-SMT Demand: 21 Idő: 0.72
+PN: INFPBA300-0565-202-SMT Demand: 20 Idő: 1.28
 </t>
       </text>
     </comment>
     <comment ref="AE6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0104-SMT Demand: 8 Idő: 0.14
-PN: INFPBA230-0118-SMT Demand: 55 Idő: 1.71
-PN: INFPBA230-0137-SMT Demand: 6 Idő: 0.19
-PN: INFPBA230-0157-SMT Demand: 60 Idő: 0.54
-PN: INFPBA230-0182-SMT Demand: 24 Idő: 0.96
-PN: INFPBA300-0562-201-SMT Demand: 36 Idő: 1.15
-PN: INFPBA300-0565-202-SMT Demand: 60 Idő: 2
-PN: INFPBA300-0573-201-SMT Demand: 75 Idő: 2.28
-PN: INFPBA300-0593-201-SMT Demand: 7 Idő: 0.1
-PN: INFPBA300-0599-201-SMT Demand: 50 Idő: 1.19
-PN: INFPBA300-0630-201-SMT Demand: 50 Idő: 0.82
+        <t xml:space="preserve">PN: INFPBA230-0104-SMT Demand: 8 Idő: 0.66
+PN: INFPBA230-0118-SMT Demand: 55 Idő: 2.51
+PN: INFPBA230-0157-SMT Demand: 54 Idő: 1.07
+PN: INFPBA230-0182-SMT Demand: 24 Idő: 1.63
+PN: INFPBA300-0562-201-SMT Demand: 36 Idő: 1.86
+PN: INFPBA300-0565-202-SMT Demand: 60 Idő: 2.85
+PN: INFPBA300-0573-201-SMT Demand: 75 Idő: 3.18
+PN: INFPBA300-0593-201-SMT Demand: 7 Idő: 0.62
+PN: INFPBA300-0599-201-SMT Demand: 50 Idő: 1.9
+PN: INFPBA300-0630-201-SMT Demand: 50 Idő: 1.46
+PN: INFPBA300-0579-201-SMT Demand: 3 Idő: 0.52
+PN: INFPBA230-0104-SMT Demand: 2 Idő: 0.54
+PN: INFPBA230-0109-SMT Demand: 1 Idő: 0.54
+PN: INFPBA230-0118-SMT Demand: 1 Idő: 0.54
+PN: INFPBA230-0122-SMT Demand: 1 Idő: 0.54
+PN: INFPBA230-0137-SMT Demand: 1 Idő: 0.54
+PN: INFPBA230-0137-SMT Demand: 3 Idő: 0.61
+PN: INFPBA230-0157-SMT Demand: 3 Idő: 0.53
+PN: INFPBA230-0158-SMT Demand: 6 Idő: 0.52
+PN: INFPBA230-0158-SMT Demand: 12 Idő: 0.54
+PN: INFPBA230-0182-SMT Demand: 1 Idő: 0.55
+PN: INFPBA230-0182-SMT Demand: 1 Idő: 0.55
+PN: INFPBA230-0183-SMT Demand: 2 Idő: 0.51
+PN: INFPBA230-0183-SMT Demand: 4 Idő: 0.52
+PN: INFPBA230-0183-SMT Demand: 2 Idő: 0.51
+PN: INFPBA230-0185-SMT Demand: 2 Idő: 0.52
+PN: INFPBA230-0188-SMT Demand: 1 Idő: 0.55
+PN: INFPBA300-0561-201-SMT Demand: 1 Idő: 0.52
+PN: INFPBA300-0565-202-SMT Demand: 1 Idő: 0.54
+PN: INFPBA300-0573-201-SMT Demand: 1 Idő: 0.54
+PN: INFPBA300-0599-201-SMT Demand: 3 Idő: 0.58
+PN: INFPBA300-0610-201-SMT Demand: 1 Idő: 0.53
+PN: INFPBA300-0613-201-SMT Demand: 1 Idő: 0.54
+PN: INFPBA300-0630-201-SMT Demand: 1 Idő: 0.52
+PN: INFPBA300-0664-202-SMT Demand: 5 Idő: 0.62
 </t>
       </text>
     </comment>
     <comment ref="AF6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0178-SMT Demand: 40 Idő: 1.35
-PN: INFPBA230-0158-SMT Demand: 400 Idő: 1.03
-PN: INFPBA230-0183-SMT Demand: 400 Idő: 2.07
+        <t xml:space="preserve">PN: INFPBA230-0178-SMT Demand: 25 Idő: 1.49
+PN: INFPBA230-0178-SMT Demand: 50 Idő: 2.48
 </t>
       </text>
     </comment>
     <comment ref="AG6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA051-0016-SMT Demand: 4 Idő: 0.01
-PN: INFPBA230-0158-SMT Demand: 84 Idő: 0.22
-PN: INFPBA230-0183-SMT Demand: 84 Idő: 0.43
+        <t xml:space="preserve">PN: INFPBA051-0016-SMT Demand: 4 Idő: 0.51
+PN: INFPBA230-0158-SMT Demand: 484 Idő: 1.96
+PN: INFPBA230-0183-SMT Demand: 484 Idő: 3.45
+PN: INFPBA300-0568-201-SMT Demand: 115 Idő: 1.02
 </t>
       </text>
     </comment>
     <comment ref="AI6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0202-SMT Demand: 36 Idő: 0.19
-PN: INFPBA230-0203-SMT Demand: 72 Idő: 0.31
-PN: INFPBA230-0204-SMT Demand: 36 Idő: 0.04
-PN: INFPBA230-0185-SMT Demand: 30 Idő: 0.24
-PN: INFPBA230-0188-SMT Demand: 30 Idő: 1.29
+        <t xml:space="preserve">PN: INFPBA230-0202-SMT Demand: 36 Idő: 0.72
+PN: INFPBA230-0203-SMT Demand: 72 Idő: 0.87
+PN: INFPBA230-0204-SMT Demand: 36 Idő: 0.55
 </t>
       </text>
     </comment>
     <comment ref="AJ6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0137-SMT Demand: 22 Idő: 0.69
-PN: INFPBA230-0157-SMT Demand: 19 Idő: 0.17
-PN: INFPBA230-0185-SMT Demand: 10 Idő: 0.08
-PN: INFPBA230-0188-SMT Demand: 10 Idő: 0.43
-PN: INFPBA300-0558-201-SMT Demand: 45 Idő: 1.6
-PN: INFPBA300-0559-201-SMT Demand: 45 Idő: 0.65
-PN: INFPBA300-0562-201-SMT Demand: 66 Idő: 2.11
-PN: INFPBA300-0563-201-SMT Demand: 41 Idő: 0.83
-PN: INFPBA300-0565-202-SMT Demand: 19 Idő: 0.63
-PN: INFPBA300-0573-201-SMT Demand: 41 Idő: 1.25
-PN: INFPBA300-0664-202-SMT Demand: 12 Idő: 0.24
+        <t xml:space="preserve">PN: INFPBA230-0137-SMT Demand: 11 Idő: 0.91
+PN: INFPBA230-0157-SMT Demand: 19 Idő: 0.7
+PN: INFPBA230-0185-SMT Demand: 40 Idő: 0.87
+PN: INFPBA230-0188-SMT Demand: 40 Idő: 2.53
+PN: INFPBA300-0558-201-SMT Demand: 105 Idő: 4.9
+PN: INFPBA300-0559-201-SMT Demand: 105 Idő: 2.28
+PN: INFPBA300-0562-201-SMT Demand: 66 Idő: 2.99
+PN: INFPBA300-0563-201-SMT Demand: 41 Idő: 1.48
+PN: INFPBA300-0565-202-SMT Demand: 19 Idő: 1.25
+PN: INFPBA300-0573-201-SMT Demand: 41 Idő: 1.97
+PN: INFPBA300-0664-202-SMT Demand: 12 Idő: 0.79
 </t>
       </text>
     </comment>
     <comment ref="AK6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0178-SMT Demand: 31 Idő: 1.04
-PN: INFPBA230-0158-SMT Demand: 200 Idő: 0.51
-PN: INFPBA230-0183-SMT Demand: 200 Idő: 1.03
+        <t xml:space="preserve">PN: INFPBA230-0178-SMT Demand: 31 Idő: 1.73
 </t>
       </text>
     </comment>
     <comment ref="AL6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA051-0016-SMT Demand: 43 Idő: 0.06
-PN: INFPBA230-0158-SMT Demand: 86 Idő: 0.22
-PN: INFPBA230-0183-SMT Demand: 86 Idő: 0.44
+        <t xml:space="preserve">PN: INFPBA051-0016-SMT Demand: 43 Idő: 0.57
+PN: INFPBA230-0158-SMT Demand: 286 Idő: 1.36
+PN: INFPBA230-0183-SMT Demand: 286 Idő: 2.24
 </t>
       </text>
     </comment>
     <comment ref="AN6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0202-SMT Demand: 178 Idő: 0.93
-PN: INFPBA230-0203-SMT Demand: 356 Idő: 1.55
-PN: INFPBA230-0204-SMT Demand: 178 Idő: 0.19
-PN: INFPBA300-0578-201-SMT Demand: 42 Idő: 0.24
-PN: INFPBA300-0579-201-SMT Demand: 34 Idő: 0.17
+        <t xml:space="preserve">PN: INFPBA230-0202-SMT Demand: 178 Idő: 1.59
+PN: INFPBA230-0203-SMT Demand: 356 Idő: 2.32
+PN: INFPBA230-0204-SMT Demand: 178 Idő: 0.73
+PN: INFPBA300-0578-201-SMT Demand: 42 Idő: 0.79
+PN: INFPBA300-0579-201-SMT Demand: 34 Idő: 0.7
 </t>
       </text>
     </comment>
     <comment ref="AO6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0104-SMT Demand: 3 Idő: 0.05
-PN: INFPBA230-0109-SMT Demand: 9 Idő: 0.3
-PN: INFPBA230-0122-SMT Demand: 1 Idő: 0.03
-PN: INFPBA230-0137-SMT Demand: 12 Idő: 0.38
-PN: INFPBA230-0157-SMT Demand: 2 Idő: 0.02
-PN: INFPBA230-0181-SMT Demand: 58 Idő: 2.16
-PN: INFPBA230-0182-SMT Demand: 25 Idő: 1
-PN: INFPBA230-0185-SMT Demand: 7 Idő: 0.05
-PN: INFPBA230-0188-SMT Demand: 7 Idő: 0.3
-PN: INFPBA300-0562-201-SMT Demand: 1 Idő: 0.03
-PN: INFPBA300-0563-201-SMT Demand: 1 Idő: 0.02
-PN: INFPBA300-0565-202-SMT Demand: 2 Idő: 0.07
-PN: INFPBA300-0573-201-SMT Demand: 45 Idő: 1.37
-PN: INFPBA300-0599-201-SMT Demand: 9 Idő: 0.21
-PN: INFPBA300-0616-201-SMT Demand: 12 Idő: 0.28
-PN: INFPBA300-0630-201-SMT Demand: 9 Idő: 0.15
+        <t xml:space="preserve">PN: INFPBA230-0104-SMT Demand: 3 Idő: 0.56
+PN: INFPBA230-0109-SMT Demand: 9 Idő: 0.85
+PN: INFPBA230-0137-SMT Demand: 12 Idő: 0.94
+PN: INFPBA230-0157-SMT Demand: 2 Idő: 0.52
+PN: INFPBA230-0181-SMT Demand: 58 Idő: 3.04
+PN: INFPBA230-0185-SMT Demand: 7 Idő: 0.56
+PN: INFPBA300-0562-201-SMT Demand: 1 Idő: 0.54
+PN: INFPBA300-0563-201-SMT Demand: 1 Idő: 0.52
+PN: INFPBA300-0565-202-SMT Demand: 2 Idő: 0.58
+PN: INFPBA300-0573-201-SMT Demand: 45 Idő: 2.11
+PN: INFPBA300-0599-201-SMT Demand: 9 Idő: 0.75
+PN: INFPBA300-0630-201-SMT Demand: 9 Idő: 0.67
 </t>
       </text>
     </comment>
     <comment ref="AP6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0178-SMT Demand: 17 Idő: 0.57
-PN: INFPBA230-0158-SMT Demand: 316 Idő: 0.81
-PN: INFPBA230-0183-SMT Demand: 316 Idő: 1.63
-PN: INFPBA230-0202-SMT Demand: 1 Idő: 0.01
-PN: INFPBA230-0203-SMT Demand: 5 Idő: 0.02
+        <t xml:space="preserve">PN: INFPBA230-0178-SMT Demand: 17 Idő: 1.17
+PN: INFPBA230-0202-SMT Demand: 1 Idő: 0.51
+PN: INFPBA230-0203-SMT Demand: 5 Idő: 0.53
 </t>
       </text>
     </comment>
     <comment ref="AQ6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA051-0016-SMT Demand: 53 Idő: 0.07
-PN: INFPBA230-0158-SMT Demand: 107 Idő: 0.27
-PN: INFPBA230-0183-SMT Demand: 106 Idő: 0.55
+        <t xml:space="preserve">PN: INFPBA051-0016-SMT Demand: 53 Idő: 0.58
+PN: INFPBA230-0158-SMT Demand: 423 Idő: 1.78
+PN: INFPBA230-0183-SMT Demand: 422 Idő: 3.07
 </t>
       </text>
     </comment>
     <comment ref="AR6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0202-SMT Demand: 178 Idő: 0.93
-PN: INFPBA230-0203-SMT Demand: 356 Idő: 1.55
-PN: INFPBA230-0204-SMT Demand: 178 Idő: 0.19
-PN: INFPBA300-0578-201-SMT Demand: 62 Idő: 0.36
-PN: INFPBA300-0579-201-SMT Demand: 62 Idő: 0.32
+        <t xml:space="preserve">PN: INFPBA230-0202-SMT Demand: 178 Idő: 1.59
+PN: INFPBA230-0203-SMT Demand: 356 Idő: 2.32
+PN: INFPBA230-0204-SMT Demand: 178 Idő: 0.73
+PN: INFPBA300-0578-201-SMT Demand: 62 Idő: 0.92
+PN: INFPBA300-0579-201-SMT Demand: 62 Idő: 0.87
 </t>
       </text>
     </comment>
     <comment ref="AS6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0104-SMT Demand: 3 Idő: 0.05
-PN: INFPBA230-0109-SMT Demand: 9 Idő: 0.3
-PN: INFPBA230-0122-SMT Demand: 4 Idő: 0.12
-PN: INFPBA230-0137-SMT Demand: 12 Idő: 0.38
-PN: INFPBA230-0154-SMT Demand: 11 Idő: 0.29
-PN: INFPBA230-0157-SMT Demand: 2 Idő: 0.02
-PN: INFPBA230-0181-SMT Demand: 58 Idő: 2.16
-PN: INFPBA230-0182-SMT Demand: 25 Idő: 1
-PN: INFPBA230-0185-SMT Demand: 7 Idő: 0.05
-PN: INFPBA230-0188-SMT Demand: 7 Idő: 0.3
-PN: INFPBA300-0562-201-SMT Demand: 1 Idő: 0.03
-PN: INFPBA300-0563-201-SMT Demand: 1 Idő: 0.02
-PN: INFPBA300-0565-202-SMT Demand: 2 Idő: 0.07
-PN: INFPBA300-0573-201-SMT Demand: 45 Idő: 1.37
-PN: INFPBA300-0595-201-SMT Demand: 9 Idő: 0.2
-PN: INFPBA300-0599-201-SMT Demand: 9 Idő: 0.21
-PN: INFPBA300-0609-201-SMT Demand: 2 Idő: 0.05
-PN: INFPBA300-0616-201-SMT Demand: 12 Idő: 0.28
-PN: INFPBA300-0630-201-SMT Demand: 9 Idő: 0.15
+        <t xml:space="preserve">PN: INFPBA230-0104-SMT Demand: 3 Idő: 0.56
+PN: INFPBA230-0109-SMT Demand: 9 Idő: 0.85
+PN: INFPBA230-0137-SMT Demand: 12 Idő: 0.94
+PN: INFPBA230-0154-SMT Demand: 11 Idő: 0.84
+PN: INFPBA230-0157-SMT Demand: 2 Idő: 0.52
+PN: INFPBA230-0181-SMT Demand: 58 Idő: 3.04
+PN: INFPBA230-0185-SMT Demand: 7 Idő: 0.56
+PN: INFPBA300-0562-201-SMT Demand: 1 Idő: 0.54
+PN: INFPBA300-0563-201-SMT Demand: 1 Idő: 0.52
+PN: INFPBA300-0565-202-SMT Demand: 2 Idő: 0.58
+PN: INFPBA300-0573-201-SMT Demand: 45 Idő: 2.11
+PN: INFPBA300-0595-201-SMT Demand: 9 Idő: 0.74
+PN: INFPBA300-0599-201-SMT Demand: 9 Idő: 0.75
+PN: INFPBA300-0630-201-SMT Demand: 9 Idő: 0.67
 </t>
       </text>
     </comment>
     <comment ref="AT6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0178-SMT Demand: 17 Idő: 0.57
-PN: INFPBA230-0158-SMT Demand: 316 Idő: 0.81
-PN: INFPBA230-0183-SMT Demand: 316 Idő: 1.63
-PN: INFPBA230-0202-SMT Demand: 1 Idő: 0.01
-PN: INFPBA230-0203-SMT Demand: 5 Idő: 0.02
+        <t xml:space="preserve">PN: INFPBA230-0178-SMT Demand: 17 Idő: 1.17
+PN: INFPBA230-0202-SMT Demand: 1 Idő: 0.51
+PN: INFPBA230-0203-SMT Demand: 5 Idő: 0.53
 </t>
       </text>
     </comment>
     <comment ref="AU6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA051-0016-SMT Demand: 53 Idő: 0.07
-PN: INFPBA230-0158-SMT Demand: 107 Idő: 0.27
-PN: INFPBA230-0183-SMT Demand: 106 Idő: 0.55
+        <t xml:space="preserve">PN: INFPBA051-0016-SMT Demand: 53 Idő: 0.58
+PN: INFPBA230-0158-SMT Demand: 423 Idő: 1.78
+PN: INFPBA230-0183-SMT Demand: 422 Idő: 3.07
 </t>
       </text>
     </comment>
     <comment ref="AW6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0202-SMT Demand: 152 Idő: 0.79
-PN: INFPBA230-0203-SMT Demand: 304 Idő: 1.32
-PN: INFPBA230-0204-SMT Demand: 152 Idő: 0.17
-PN: INFPBA300-0578-201-SMT Demand: 53 Idő: 0.31
-PN: INFPBA300-0579-201-SMT Demand: 53 Idő: 0.27
+        <t xml:space="preserve">PN: INFPBA230-0202-SMT Demand: 152 Idő: 1.44
+PN: INFPBA230-0203-SMT Demand: 304 Idő: 2.06
+PN: INFPBA230-0204-SMT Demand: 152 Idő: 0.69
+PN: INFPBA300-0578-201-SMT Demand: 53 Idő: 0.86
+PN: INFPBA300-0579-201-SMT Demand: 53 Idő: 0.82
 </t>
       </text>
     </comment>
     <comment ref="AX6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0104-SMT Demand: 3 Idő: 0.05
-PN: INFPBA230-0109-SMT Demand: 8 Idő: 0.27
-PN: INFPBA230-0122-SMT Demand: 4 Idő: 0.12
-PN: INFPBA230-0137-SMT Demand: 10 Idő: 0.31
-PN: INFPBA230-0154-SMT Demand: 16 Idő: 0.42
-PN: INFPBA230-0157-SMT Demand: 2 Idő: 0.02
-PN: INFPBA230-0181-SMT Demand: 50 Idő: 1.86
-PN: INFPBA230-0182-SMT Demand: 21 Idő: 0.84
-PN: INFPBA230-0185-SMT Demand: 6 Idő: 0.05
-PN: INFPBA230-0188-SMT Demand: 6 Idő: 0.26
-PN: INFPBA300-0562-201-SMT Demand: 1 Idő: 0.03
-PN: INFPBA300-0563-201-SMT Demand: 1 Idő: 0.02
-PN: INFPBA300-0565-202-SMT Demand: 2 Idő: 0.07
-PN: INFPBA300-0573-201-SMT Demand: 39 Idő: 1.19
-PN: INFPBA300-0595-201-SMT Demand: 8 Idő: 0.18
-PN: INFPBA300-0599-201-SMT Demand: 8 Idő: 0.19
-PN: INFPBA300-0609-201-SMT Demand: 2 Idő: 0.05
-PN: INFPBA300-0616-201-SMT Demand: 10 Idő: 0.23
-PN: INFPBA300-0630-201-SMT Demand: 8 Idő: 0.13
+        <t xml:space="preserve">PN: INFPBA230-0104-SMT Demand: 3 Idő: 0.56
+PN: INFPBA230-0109-SMT Demand: 8 Idő: 0.81
+PN: INFPBA230-0137-SMT Demand: 10 Idő: 0.87
+PN: INFPBA230-0154-SMT Demand: 16 Idő: 0.99
+PN: INFPBA230-0157-SMT Demand: 2 Idő: 0.52
+PN: INFPBA230-0181-SMT Demand: 50 Idő: 2.69
+PN: INFPBA230-0185-SMT Demand: 6 Idő: 0.56
+PN: INFPBA300-0562-201-SMT Demand: 1 Idő: 0.54
+PN: INFPBA300-0563-201-SMT Demand: 1 Idő: 0.52
+PN: INFPBA300-0565-202-SMT Demand: 2 Idő: 0.58
+PN: INFPBA300-0573-201-SMT Demand: 39 Idő: 1.89
+PN: INFPBA300-0595-201-SMT Demand: 8 Idő: 0.71
+PN: INFPBA300-0599-201-SMT Demand: 8 Idő: 0.72
+PN: INFPBA300-0609-201-SMT Demand: 2 Idő: 0.55
+PN: INFPBA300-0630-201-SMT Demand: 8 Idő: 0.65
 </t>
       </text>
     </comment>
     <comment ref="AY6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0178-SMT Demand: 14 Idő: 0.47
-PN: INFPBA230-0158-SMT Demand: 270 Idő: 0.69
-PN: INFPBA230-0183-SMT Demand: 270 Idő: 1.4
-PN: INFPBA230-0202-SMT Demand: 1 Idő: 0.01
-PN: INFPBA230-0203-SMT Demand: 4 Idő: 0.02
-PN: INFPBA300-0558-201-SMT Demand: 60 Idő: 2.14
-PN: INFPBA300-0559-201-SMT Demand: 60 Idő: 0.86
+        <t xml:space="preserve">PN: INFPBA230-0178-SMT Demand: 14 Idő: 1.05
+PN: INFPBA230-0202-SMT Demand: 1 Idő: 0.51
+PN: INFPBA230-0203-SMT Demand: 4 Idő: 0.52
 </t>
       </text>
     </comment>
     <comment ref="AZ6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA051-0016-SMT Demand: 45 Idő: 0.06
-PN: INFPBA230-0158-SMT Demand: 91 Idő: 0.23
-PN: INFPBA230-0183-SMT Demand: 90 Idő: 0.47
-PN: INFPBA300-0568-201-SMT Demand: 20 Idő: 0.08
+        <t xml:space="preserve">PN: INFPBA051-0016-SMT Demand: 45 Idő: 0.57
+PN: INFPBA230-0158-SMT Demand: 361 Idő: 1.59
+PN: INFPBA230-0183-SMT Demand: 360 Idő: 2.69
 </t>
       </text>
     </comment>
     <comment ref="BA6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0202-SMT Demand: 73 Idő: 0.38
-PN: INFPBA230-0203-SMT Demand: 144 Idő: 0.63
-PN: INFPBA230-0204-SMT Demand: 73 Idő: 0.08
-PN: INFPBA300-0578-201-SMT Demand: 61 Idő: 0.35
-PN: INFPBA300-0579-201-SMT Demand: 61 Idő: 0.31
+        <t xml:space="preserve">PN: INFPBA230-0202-SMT Demand: 73 Idő: 0.95
+PN: INFPBA230-0203-SMT Demand: 144 Idő: 1.24
+PN: INFPBA230-0204-SMT Demand: 73 Idő: 0.59
+PN: INFPBA300-0578-201-SMT Demand: 61 Idő: 0.91
+PN: INFPBA300-0579-201-SMT Demand: 61 Idő: 0.87
 </t>
       </text>
     </comment>
     <comment ref="BB6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0104-SMT Demand: 4 Idő: 0.07
-PN: INFPBA230-0109-SMT Demand: 8 Idő: 0.27
-PN: INFPBA230-0122-SMT Demand: 5 Idő: 0.15
-PN: INFPBA230-0137-SMT Demand: 9 Idő: 0.28
-PN: INFPBA230-0154-SMT Demand: 12 Idő: 0.31
-PN: INFPBA230-0157-SMT Demand: 4 Idő: 0.04
-PN: INFPBA230-0181-SMT Demand: 47 Idő: 1.75
-PN: INFPBA230-0182-SMT Demand: 15 Idő: 0.6
-PN: INFPBA230-0185-SMT Demand: 3 Idő: 0.02
-PN: INFPBA230-0188-SMT Demand: 3 Idő: 0.13
-PN: INFPBA300-0562-201-SMT Demand: 9 Idő: 0.29
-PN: INFPBA300-0563-201-SMT Demand: 5 Idő: 0.1
-PN: INFPBA300-0565-202-SMT Demand: 4 Idő: 0.13
-PN: INFPBA300-0573-201-SMT Demand: 29 Idő: 0.88
-PN: INFPBA300-0593-201-SMT Demand: 5 Idő: 0.07
-PN: INFPBA300-0595-201-SMT Demand: 10 Idő: 0.23
-PN: INFPBA300-0599-201-SMT Demand: 15 Idő: 0.36
-PN: INFPBA300-0609-201-SMT Demand: 6 Idő: 0.14
-PN: INFPBA300-0616-201-SMT Demand: 9 Idő: 0.21
-PN: INFPBA300-0630-201-SMT Demand: 15 Idő: 0.25
-PN: INFPBA300-0664-202-SMT Demand: 4 Idő: 0.08
+        <t xml:space="preserve">PN: INFPBA230-0104-SMT Demand: 4 Idő: 0.58
+PN: INFPBA230-0109-SMT Demand: 8 Idő: 0.81
+PN: INFPBA230-0137-SMT Demand: 9 Idő: 0.83
+PN: INFPBA230-0154-SMT Demand: 12 Idő: 0.87
+PN: INFPBA230-0157-SMT Demand: 4 Idő: 0.54
+PN: INFPBA230-0181-SMT Demand: 47 Idő: 2.56
+PN: INFPBA230-0185-SMT Demand: 3 Idő: 0.53
+PN: INFPBA300-0562-201-SMT Demand: 9 Idő: 0.84
+PN: INFPBA300-0563-201-SMT Demand: 5 Idő: 0.62
+PN: INFPBA300-0565-202-SMT Demand: 4 Idő: 0.66
+PN: INFPBA300-0573-201-SMT Demand: 29 Idő: 1.54
+PN: INFPBA300-0593-201-SMT Demand: 5 Idő: 0.58
+PN: INFPBA300-0595-201-SMT Demand: 10 Idő: 0.77
+PN: INFPBA300-0599-201-SMT Demand: 15 Idő: 0.92
+PN: INFPBA300-0609-201-SMT Demand: 6 Idő: 0.66
+PN: INFPBA300-0630-201-SMT Demand: 15 Idő: 0.79
+PN: INFPBA300-0664-202-SMT Demand: 4 Idő: 0.6
 </t>
       </text>
     </comment>
     <comment ref="BF6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA051-0016-SMT Demand: 54 Idő: 0.07
-PN: INFPBA230-0158-SMT Demand: 108 Idő: 0.28
-PN: INFPBA230-0183-SMT Demand: 108 Idő: 0.56
+        <t xml:space="preserve">PN: INFPBA051-0016-SMT Demand: 54 Idő: 0.59
+PN: INFPBA230-0158-SMT Demand: 538 Idő: 2.12
+PN: INFPBA230-0183-SMT Demand: 538 Idő: 3.77
 </t>
       </text>
     </comment>
     <comment ref="BG6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0202-SMT Demand: 73 Idő: 0.38
-PN: INFPBA230-0203-SMT Demand: 144 Idő: 0.63
-PN: INFPBA230-0204-SMT Demand: 73 Idő: 0.08
-PN: INFPBA300-0578-201-SMT Demand: 61 Idő: 0.35
-PN: INFPBA300-0579-201-SMT Demand: 61 Idő: 0.31
+        <t xml:space="preserve">PN: INFPBA230-0202-SMT Demand: 73 Idő: 0.95
+PN: INFPBA230-0203-SMT Demand: 144 Idő: 1.24
+PN: INFPBA230-0204-SMT Demand: 73 Idő: 0.59
+PN: INFPBA300-0578-201-SMT Demand: 61 Idő: 0.91
+PN: INFPBA300-0579-201-SMT Demand: 61 Idő: 0.87
 </t>
       </text>
     </comment>
     <comment ref="BH6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0104-SMT Demand: 4 Idő: 0.07
-PN: INFPBA230-0109-SMT Demand: 8 Idő: 0.27
-PN: INFPBA230-0122-SMT Demand: 5 Idő: 0.15
-PN: INFPBA230-0137-SMT Demand: 9 Idő: 0.28
-PN: INFPBA230-0154-SMT Demand: 12 Idő: 0.31
-PN: INFPBA230-0157-SMT Demand: 4 Idő: 0.04
-PN: INFPBA230-0181-SMT Demand: 47 Idő: 1.75
-PN: INFPBA230-0182-SMT Demand: 15 Idő: 0.6
-PN: INFPBA230-0185-SMT Demand: 3 Idő: 0.02
-PN: INFPBA230-0188-SMT Demand: 3 Idő: 0.13
-PN: INFPBA300-0562-201-SMT Demand: 9 Idő: 0.29
-PN: INFPBA300-0563-201-SMT Demand: 5 Idő: 0.1
-PN: INFPBA300-0565-202-SMT Demand: 4 Idő: 0.13
-PN: INFPBA300-0573-201-SMT Demand: 29 Idő: 0.88
-PN: INFPBA300-0593-201-SMT Demand: 5 Idő: 0.07
-PN: INFPBA300-0595-201-SMT Demand: 10 Idő: 0.23
-PN: INFPBA300-0599-201-SMT Demand: 15 Idő: 0.36
-PN: INFPBA300-0609-201-SMT Demand: 6 Idő: 0.14
-PN: INFPBA300-0616-201-SMT Demand: 9 Idő: 0.21
-PN: INFPBA300-0630-201-SMT Demand: 15 Idő: 0.25
-PN: INFPBA300-0664-202-SMT Demand: 4 Idő: 0.08
+        <t xml:space="preserve">PN: INFPBA230-0104-SMT Demand: 4 Idő: 0.58
+PN: INFPBA230-0109-SMT Demand: 8 Idő: 0.81
+PN: INFPBA230-0137-SMT Demand: 9 Idő: 0.83
+PN: INFPBA230-0154-SMT Demand: 12 Idő: 0.87
+PN: INFPBA230-0157-SMT Demand: 4 Idő: 0.54
+PN: INFPBA230-0181-SMT Demand: 47 Idő: 2.56
+PN: INFPBA230-0185-SMT Demand: 3 Idő: 0.53
+PN: INFPBA300-0562-201-SMT Demand: 9 Idő: 0.84
+PN: INFPBA300-0563-201-SMT Demand: 5 Idő: 0.62
+PN: INFPBA300-0565-202-SMT Demand: 4 Idő: 0.66
+PN: INFPBA300-0573-201-SMT Demand: 29 Idő: 1.54
+PN: INFPBA300-0593-201-SMT Demand: 5 Idő: 0.58
+PN: INFPBA300-0595-201-SMT Demand: 10 Idő: 0.77
+PN: INFPBA300-0599-201-SMT Demand: 15 Idő: 0.92
+PN: INFPBA300-0609-201-SMT Demand: 6 Idő: 0.66
+PN: INFPBA300-0630-201-SMT Demand: 15 Idő: 0.79
+PN: INFPBA300-0664-202-SMT Demand: 4 Idő: 0.6
 </t>
       </text>
     </comment>
     <comment ref="BI6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0178-SMT Demand: 20 Idő: 0.67
-PN: INFPBA230-0158-SMT Demand: 430 Idő: 1.1
-PN: INFPBA230-0183-SMT Demand: 430 Idő: 2.22
+        <t xml:space="preserve">PN: INFPBA230-0178-SMT Demand: 20 Idő: 1.29
 </t>
       </text>
     </comment>
     <comment ref="BJ6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA051-0016-SMT Demand: 54 Idő: 0.07
-PN: INFPBA230-0158-SMT Demand: 108 Idő: 0.28
-PN: INFPBA230-0183-SMT Demand: 108 Idő: 0.56
+        <t xml:space="preserve">PN: INFPBA051-0016-SMT Demand: 54 Idő: 0.59
+PN: INFPBA230-0158-SMT Demand: 538 Idő: 2.12
+PN: INFPBA230-0183-SMT Demand: 538 Idő: 3.77
 </t>
       </text>
     </comment>
     <comment ref="BL6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0202-SMT Demand: 63 Idő: 0.33
-PN: INFPBA230-0203-SMT Demand: 124 Idő: 0.54
-PN: INFPBA230-0204-SMT Demand: 63 Idő: 0.07
-PN: INFPBA300-0578-201-SMT Demand: 52 Idő: 0.3
-PN: INFPBA300-0579-201-SMT Demand: 52 Idő: 0.27
+        <t xml:space="preserve">PN: INFPBA230-0202-SMT Demand: 63 Idő: 0.89
+PN: INFPBA230-0203-SMT Demand: 124 Idő: 1.14
+PN: INFPBA230-0204-SMT Demand: 63 Idő: 0.58
+PN: INFPBA300-0578-201-SMT Demand: 52 Idő: 0.85
+PN: INFPBA300-0579-201-SMT Demand: 52 Idő: 0.81
 </t>
       </text>
     </comment>
     <comment ref="BM6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0104-SMT Demand: 3 Idő: 0.05
-PN: INFPBA230-0109-SMT Demand: 7 Idő: 0.23
-PN: INFPBA230-0122-SMT Demand: 4 Idő: 0.12
-PN: INFPBA230-0137-SMT Demand: 8 Idő: 0.25
-PN: INFPBA230-0154-SMT Demand: 10 Idő: 0.26
-PN: INFPBA230-0157-SMT Demand: 4 Idő: 0.04
-PN: INFPBA230-0181-SMT Demand: 41 Idő: 1.53
-PN: INFPBA230-0182-SMT Demand: 13 Idő: 0.52
-PN: INFPBA230-0185-SMT Demand: 3 Idő: 0.02
-PN: INFPBA230-0188-SMT Demand: 3 Idő: 0.13
-PN: INFPBA300-0562-201-SMT Demand: 7 Idő: 0.22
-PN: INFPBA300-0563-201-SMT Demand: 4 Idő: 0.08
-PN: INFPBA300-0565-202-SMT Demand: 4 Idő: 0.13
-PN: INFPBA300-0573-201-SMT Demand: 25 Idő: 0.76
-PN: INFPBA300-0593-201-SMT Demand: 4 Idő: 0.06
-PN: INFPBA300-0595-201-SMT Demand: 8 Idő: 0.18
-PN: INFPBA300-0599-201-SMT Demand: 13 Idő: 0.31
-PN: INFPBA300-0609-201-SMT Demand: 5 Idő: 0.11
-PN: INFPBA300-0616-201-SMT Demand: 8 Idő: 0.19
-PN: INFPBA300-0630-201-SMT Demand: 13 Idő: 0.21
-PN: INFPBA300-0664-202-SMT Demand: 3 Idő: 0.06
+        <t xml:space="preserve">PN: INFPBA230-0104-SMT Demand: 3 Idő: 0.56
+PN: INFPBA230-0109-SMT Demand: 7 Idő: 0.77
+PN: INFPBA230-0137-SMT Demand: 8 Idő: 0.8
+PN: INFPBA230-0154-SMT Demand: 10 Idő: 0.81
+PN: INFPBA230-0157-SMT Demand: 4 Idő: 0.54
+PN: INFPBA230-0181-SMT Demand: 41 Idő: 2.3
+PN: INFPBA230-0185-SMT Demand: 3 Idő: 0.53
+PN: INFPBA300-0562-201-SMT Demand: 7 Idő: 0.76
+PN: INFPBA300-0563-201-SMT Demand: 4 Idő: 0.6
+PN: INFPBA300-0565-202-SMT Demand: 4 Idő: 0.66
+PN: INFPBA300-0573-201-SMT Demand: 25 Idő: 1.39
+PN: INFPBA300-0593-201-SMT Demand: 4 Idő: 0.57
+PN: INFPBA300-0595-201-SMT Demand: 8 Idő: 0.71
+PN: INFPBA300-0599-201-SMT Demand: 13 Idő: 0.86
+PN: INFPBA300-0609-201-SMT Demand: 5 Idő: 0.63
+PN: INFPBA300-0630-201-SMT Demand: 13 Idő: 0.75
+PN: INFPBA300-0664-202-SMT Demand: 3 Idő: 0.57
 </t>
       </text>
     </comment>
     <comment ref="BN6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA230-0178-SMT Demand: 17 Idő: 0.57
-PN: INFPBA230-0158-SMT Demand: 370 Idő: 0.95
-PN: INFPBA230-0183-SMT Demand: 370 Idő: 1.91
+        <t xml:space="preserve">PN: INFPBA230-0178-SMT Demand: 17 Idő: 1.17
 </t>
       </text>
     </comment>
     <comment ref="BO6" authorId="1">
       <text>
-        <t xml:space="preserve">PN: INFPBA051-0016-SMT Demand: 47 Idő: 0.06
-PN: INFPBA230-0158-SMT Demand: 94 Idő: 0.24
-PN: INFPBA230-0183-SMT Demand: 94 Idő: 0.49
+        <t xml:space="preserve">PN: INFPBA051-0016-SMT Demand: 47 Idő: 0.57
+PN: INFPBA230-0158-SMT Demand: 464 Idő: 1.9
+PN: INFPBA230-0183-SMT Demand: 464 Idő: 3.32
 </t>
       </text>
     </comment>
     <comment ref="C7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 100 Idő: 2.81
-PN: NKU3DB28146ACAA Demand: 100 Idő: 1.96
-PN: NKU3DB28234AEAB Demand: 24 Idő: 0.67
+        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 100 Idő: 3.81
+PN: NKU3DB28146ACAA Demand: 100 Idő: 2.81
+PN: NKU3DB28234AEAB Demand: 24 Idő: 1.29
 </t>
       </text>
     </comment>
     <comment ref="AD7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 1197 Idő: 33.64
-PN: NKU3DB28146ACAA Demand: 1155 Idő: 22.65
-PN: NKU3DB28518ADAB Demand: 121 Idő: 1
+        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 0 Idő: 0.5
+PN: NKU3DB28034AEAB Demand: 4 Idő: 0.63
+PN: NKU3DB28146ACAA Demand: 455 Idő: 11
+PN: NKU3DB28146ACAA Demand: 4 Idő: 0.59
+PN: NKU3DB28518ADAB Demand: 121 Idő: 1.68
+PN: NKU3DB28146ACAA Demand: 700 Idő: 16.65
+PN: NKU3DB28234AEAB Demand: 200 Idő: 7.11
+PN: NKU3DB28538ADAB Demand: 66 Idő: 1.55
 </t>
       </text>
     </comment>
     <comment ref="AE7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28234AEAB Demand: 27 Idő: 0.76
-PN: NKU3DB28506ADAB Demand: 120 Idő: 1.62
-PN: NKU3DB28511ABAA Demand: 160 Idő: 2.79
-PN: NKU3DB28518ADAB Demand: 306 Idő: 2.53
-PN: NKU3DB28525ABAB Demand: 162 Idő: 2.15
-PN: NKU3DB28034AEAB Demand: 120 Idő: 3.37
-PN: NKU3DB28134AEAB Demand: 75 Idő: 2.11
-PN: NKU3DB28146ACAA Demand: 120 Idő: 2.35
+        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 116 Idő: 4.34
+PN: NKU3DB28146ACAA Demand: 116 Idő: 3.18
+PN: NKU3DB28518ADAB Demand: 306 Idő: 3.48
+PN: NKU3DB28034AEAB Demand: 64 Idő: 2.62
+PN: NKU3DB28134AEAB Demand: 5 Idő: 0.67
+PN: NKU3DB28134AEAB Demand: 11 Idő: 0.86
+PN: NKU3DB28134AEAB Demand: 89 Idő: 3.44
+PN: NKU3DB28134AEAB Demand: 208 Idő: 7.38
+PN: NKU3DB28146ACAA Demand: 27 Idő: 1.12
+PN: NKU3DB28234AEAB Demand: 40 Idő: 1.82
+PN: NKU3DB28234AEAB Demand: 102 Idő: 3.87
+PN: NKU3DB28234AEAB Demand: 217 Idő: 7.67
+PN: NKU3DB28506ADAB Demand: 8 Idő: 0.63
+PN: NKU3DB28518ADAB Demand: 39 Idő: 0.88
+PN: NKU3DB28538ADAB Demand: 6 Idő: 0.6
 </t>
       </text>
     </comment>
     <comment ref="AF7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28134AEAB Demand: 922 Idő: 25.91
-PN: NKU3DB28234AEAB Demand: 525 Idő: 14.75
-PN: NKU3DB28518ADAB Demand: 580 Idő: 4.8
-PN: NKU3DB28523ADAB Demand: 317 Idő: 4.28
+        <t xml:space="preserve">PN: NKU3DB28134AEAB Demand: 562 Idő: 19.08
+PN: NKU3DB28234AEAB Demand: 0 Idő: 0.5
+PN: NKU3DB28518ADAB Demand: 580 Idő: 6.15
+PN: NKU3DB28523ADAB Demand: 317 Idő: 5.54
+PN: NKU3DB28034AEAB Demand: 20 Idő: 1.16
+PN: NKU3DB28146ACAA Demand: 20 Idő: 0.96
+PN: NKU3DB28134AEAB Demand: 24 Idő: 1.29
 </t>
       </text>
     </comment>
     <comment ref="AG7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28134AEAB Demand: 448 Idő: 12.59
-PN: NKU3DB28234AEAB Demand: 1456 Idő: 40.92
-PN: NKU3DB28518ADAB Demand: 504 Idő: 4.17
-PN: NKU3DB28523ADAB Demand: 216 Idő: 2.92
+        <t xml:space="preserve">PN: NKU3DB28134AEAB Demand: 440 Idő: 15.05
+PN: NKU3DB28234AEAB Demand: 0 Idő: 0.5
+PN: NKU3DB28518ADAB Demand: 504 Idő: 5.41
+PN: NKU3DB28523ADAB Demand: 216 Idő: 3.93
 </t>
       </text>
     </comment>
     <comment ref="AH7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28234AEAB Demand: 600 Idő: 16.86
+        <t xml:space="preserve">PN: NKU3DB28234AEAB Demand: 240 Idő: 8.44
 </t>
       </text>
     </comment>
     <comment ref="AI7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28134AEAB Demand: 312 Idő: 8.77
-PN: NKU3DB28523ADAB Demand: 312 Idő: 4.21
+        <t xml:space="preserve">PN: NKU3DB28134AEAB Demand: 312 Idő: 10.82
+PN: NKU3DB28523ADAB Demand: 312 Idő: 5.46
 </t>
       </text>
     </comment>
     <comment ref="AJ7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28134AEAB Demand: 264 Idő: 7.42
-PN: NKU3DB28234AEAB Demand: 48 Idő: 1.35
+        <t xml:space="preserve">PN: NKU3DB28134AEAB Demand: 264 Idő: 9.23
+PN: NKU3DB28234AEAB Demand: 48 Idő: 2.09
 </t>
       </text>
     </comment>
     <comment ref="AK7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28134AEAB Demand: 982 Idő: 27.6
-PN: NKU3DB28234AEAB Demand: 867 Idő: 24.37
-PN: NKU3DB28518ADAB Demand: 768 Idő: 6.36
-PN: NKU3DB28523ADAB Demand: 724 Idő: 9.78
+        <t xml:space="preserve">PN: NKU3DB28134AEAB Demand: 315 Idő: 10.92
+PN: NKU3DB28234AEAB Demand: 311 Idő: 10.78
+PN: NKU3DB28518ADAB Demand: 384 Idő: 4.24
+PN: NKU3DB28523ADAB Demand: 216 Idő: 3.93
 </t>
       </text>
     </comment>
     <comment ref="AL7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28234AEAB Demand: 240 Idő: 6.75
+        <t xml:space="preserve">PN: NKU3DB28234AEAB Demand: 192 Idő: 6.85
 </t>
       </text>
     </comment>
     <comment ref="AO7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 480 Idő: 13.49
-PN: NKU3DB28134AEAB Demand: 790 Idő: 22.2
-PN: NKU3DB28146ACAA Demand: 480 Idő: 9.41
-PN: NKU3DB28234AEAB Demand: 673 Idő: 18.91
-PN: NKU3DB28518ADAB Demand: 456 Idő: 3.78
-PN: NKU3DB28523ADAB Demand: 508 Idő: 6.86
+        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 480 Idő: 16.37
+PN: NKU3DB28134AEAB Demand: 933 Idő: 31.35
+PN: NKU3DB28146ACAA Demand: 480 Idő: 11.57
+PN: NKU3DB28234AEAB Demand: 998 Idő: 33.5
+PN: NKU3DB28518ADAB Demand: 840 Idő: 8.68
+PN: NKU3DB28523ADAB Demand: 508 Idő: 8.57
 </t>
       </text>
     </comment>
     <comment ref="AP7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 100 Idő: 2.81
-PN: NKU3DB28146ACAA Demand: 100 Idő: 1.96
-PN: NKU3DB28234AEAB Demand: 48 Idő: 1.35
+        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 100 Idő: 3.81
+PN: NKU3DB28146ACAA Demand: 100 Idő: 2.81
+PN: NKU3DB28234AEAB Demand: 96 Idő: 3.67
+PN: NKU3DB28506ADAB Demand: 168 Idő: 3.17
+PN: NKU3DB28511ABAA Demand: 160 Idő: 3.78
+PN: NKU3DB28525ABAB Demand: 162 Idő: 3.03
 </t>
       </text>
     </comment>
     <comment ref="AR7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28234AEAB Demand: 8 Idő: 0.22
+        <t xml:space="preserve">PN: NKU3DB28234AEAB Demand: 8 Idő: 0.76
 </t>
       </text>
     </comment>
     <comment ref="AS7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 480 Idő: 13.49
-PN: NKU3DB28134AEAB Demand: 736 Idő: 20.68
-PN: NKU3DB28146ACAA Demand: 480 Idő: 9.41
-PN: NKU3DB28234AEAB Demand: 660 Idő: 18.55
-PN: NKU3DB28518ADAB Demand: 456 Idő: 3.78
-PN: NKU3DB28523ADAB Demand: 508 Idő: 6.86
+        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 480 Idő: 16.37
+PN: NKU3DB28134AEAB Demand: 736 Idő: 24.84
+PN: NKU3DB28146ACAA Demand: 480 Idő: 11.57
+PN: NKU3DB28234AEAB Demand: 660 Idő: 22.32
+PN: NKU3DB28518ADAB Demand: 456 Idő: 4.94
+PN: NKU3DB28523ADAB Demand: 508 Idő: 8.57
 </t>
       </text>
     </comment>
     <comment ref="AT7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 100 Idő: 2.81
-PN: NKU3DB28146ACAA Demand: 100 Idő: 1.96
-PN: NKU3DB28234AEAB Demand: 48 Idő: 1.35
+        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 100 Idő: 3.81
+PN: NKU3DB28146ACAA Demand: 100 Idő: 2.81
+PN: NKU3DB28234AEAB Demand: 48 Idő: 2.09
 </t>
       </text>
     </comment>
     <comment ref="AX7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 480 Idő: 13.49
-PN: NKU3DB28134AEAB Demand: 736 Idő: 20.68
-PN: NKU3DB28146ACAA Demand: 480 Idő: 9.41
-PN: NKU3DB28234AEAB Demand: 684 Idő: 19.22
-PN: NKU3DB28518ADAB Demand: 456 Idő: 3.78
-PN: NKU3DB28523ADAB Demand: 508 Idő: 6.86
+        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 480 Idő: 16.37
+PN: NKU3DB28134AEAB Demand: 736 Idő: 24.84
+PN: NKU3DB28146ACAA Demand: 480 Idő: 11.57
+PN: NKU3DB28234AEAB Demand: 684 Idő: 23.12
+PN: NKU3DB28518ADAB Demand: 456 Idő: 4.94
+PN: NKU3DB28523ADAB Demand: 508 Idő: 8.57
 </t>
       </text>
     </comment>
     <comment ref="AY7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 100 Idő: 2.81
-PN: NKU3DB28146ACAA Demand: 100 Idő: 1.96
-PN: NKU3DB28234AEAB Demand: 48 Idő: 1.35
+        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 100 Idő: 3.81
+PN: NKU3DB28146ACAA Demand: 100 Idő: 2.81
+PN: NKU3DB28234AEAB Demand: 48 Idő: 2.09
 </t>
       </text>
     </comment>
     <comment ref="BB7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 1000 Idő: 28.1
-PN: NKU3DB28134AEAB Demand: 1072 Idő: 30.13
-PN: NKU3DB28146ACAA Demand: 1000 Idő: 19.61
-PN: NKU3DB28234AEAB Demand: 1104 Idő: 31.03
-PN: NKU3DB28518ADAB Demand: 768 Idő: 6.36
-PN: NKU3DB28523ADAB Demand: 574 Idő: 7.75
+        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 0 Idő: 0.5
+PN: NKU3DB28134AEAB Demand: 0 Idő: 0.5
+PN: NKU3DB28146ACAA Demand: 0 Idő: 0.5
+PN: NKU3DB28234AEAB Demand: 0 Idő: 0.5
+PN: NKU3DB28518ADAB Demand: 768 Idő: 7.98
+PN: NKU3DB28523ADAB Demand: 574 Idő: 9.62
 </t>
       </text>
     </comment>
     <comment ref="BG7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28234AEAB Demand: 8 Idő: 0.22
+        <t xml:space="preserve">PN: NKU3DB28234AEAB Demand: 8 Idő: 0.76
 </t>
       </text>
     </comment>
     <comment ref="BH7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 1000 Idő: 28.1
-PN: NKU3DB28134AEAB Demand: 1072 Idő: 30.13
-PN: NKU3DB28146ACAA Demand: 1000 Idő: 19.61
-PN: NKU3DB28234AEAB Demand: 1104 Idő: 31.03
-PN: NKU3DB28518ADAB Demand: 768 Idő: 6.36
-PN: NKU3DB28523ADAB Demand: 574 Idő: 7.75
+        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 0 Idő: 0.5
+PN: NKU3DB28134AEAB Demand: 0 Idő: 0.5
+PN: NKU3DB28146ACAA Demand: 0 Idő: 0.5
+PN: NKU3DB28234AEAB Demand: 0 Idő: 0.5
+PN: NKU3DB28518ADAB Demand: 768 Idő: 7.98
+PN: NKU3DB28523ADAB Demand: 574 Idő: 9.62
 </t>
       </text>
     </comment>
     <comment ref="BI7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 100 Idő: 2.81
-PN: NKU3DB28146ACAA Demand: 100 Idő: 1.96
-PN: NKU3DB28234AEAB Demand: 24 Idő: 0.67
+        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 100 Idő: 3.81
+PN: NKU3DB28146ACAA Demand: 100 Idő: 2.81
+PN: NKU3DB28234AEAB Demand: 24 Idő: 1.29
 </t>
       </text>
     </comment>
     <comment ref="BL7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 1000 Idő: 28.1
-PN: NKU3DB28134AEAB Demand: 1072 Idő: 30.13
-PN: NKU3DB28146ACAA Demand: 1000 Idő: 19.61
-PN: NKU3DB28234AEAB Demand: 1104 Idő: 31.03
-PN: NKU3DB28518ADAB Demand: 768 Idő: 6.36
-PN: NKU3DB28523ADAB Demand: 574 Idő: 7.75
+        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 0 Idő: 0.5
+PN: NKU3DB28134AEAB Demand: 0 Idő: 0.5
+PN: NKU3DB28146ACAA Demand: 0 Idő: 0.5
+PN: NKU3DB28234AEAB Demand: 0 Idő: 0.5
+PN: NKU3DB28518ADAB Demand: 768 Idő: 7.98
+PN: NKU3DB28523ADAB Demand: 574 Idő: 9.62
 </t>
       </text>
     </comment>
     <comment ref="BM7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 100 Idő: 2.81
-PN: NKU3DB28146ACAA Demand: 100 Idő: 1.96
-PN: NKU3DB28234AEAB Demand: 24 Idő: 0.67
+        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 100 Idő: 3.81
+PN: NKU3DB28146ACAA Demand: 100 Idő: 2.81
+PN: NKU3DB28234AEAB Demand: 24 Idő: 1.29
 </t>
       </text>
     </comment>
     <comment ref="BQ7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 1000 Idő: 28.1
-PN: NKU3DB28134AEAB Demand: 1072 Idő: 30.13
-PN: NKU3DB28146ACAA Demand: 1000 Idő: 19.61
-PN: NKU3DB28234AEAB Demand: 1204 Idő: 33.84
-PN: NKU3DB28518ADAB Demand: 998 Idő: 8.26
-PN: NKU3DB28523ADAB Demand: 766 Idő: 10.35
+        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 0 Idő: 0.5
+PN: NKU3DB28134AEAB Demand: 0 Idő: 0.5
+PN: NKU3DB28146ACAA Demand: 0 Idő: 0.5
+PN: NKU3DB28234AEAB Demand: 0 Idő: 0.5
+PN: NKU3DB28518ADAB Demand: 998 Idő: 10.22
+PN: NKU3DB28523ADAB Demand: 766 Idő: 12.67
 </t>
       </text>
     </comment>
     <comment ref="BR7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 100 Idő: 2.81
-PN: NKU3DB28146ACAA Demand: 100 Idő: 1.96
-PN: NKU3DB28234AEAB Demand: 24 Idő: 0.67
+        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 100 Idő: 3.81
+PN: NKU3DB28146ACAA Demand: 100 Idő: 2.81
+PN: NKU3DB28234AEAB Demand: 24 Idő: 1.29
 </t>
       </text>
     </comment>
     <comment ref="BT7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28234AEAB Demand: 8 Idő: 0.22
+        <t xml:space="preserve">PN: NKU3DB28234AEAB Demand: 8 Idő: 0.76
 </t>
       </text>
     </comment>
     <comment ref="BU7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 1000 Idő: 28.1
-PN: NKU3DB28134AEAB Demand: 808 Idő: 22.71
-PN: NKU3DB28146ACAA Demand: 1000 Idő: 19.61
-PN: NKU3DB28234AEAB Demand: 1204 Idő: 33.84
-PN: NKU3DB28518ADAB Demand: 998 Idő: 8.26
-PN: NKU3DB28523ADAB Demand: 766 Idő: 10.35
+        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 0 Idő: 0.5
+PN: NKU3DB28134AEAB Demand: 808 Idő: 27.22
+PN: NKU3DB28146ACAA Demand: 0 Idő: 0.5
+PN: NKU3DB28234AEAB Demand: 0 Idő: 0.5
+PN: NKU3DB28518ADAB Demand: 998 Idő: 10.22
+PN: NKU3DB28523ADAB Demand: 766 Idő: 12.67
 </t>
       </text>
     </comment>
     <comment ref="BV7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 100 Idő: 2.81
-PN: NKU3DB28146ACAA Demand: 100 Idő: 1.96
-PN: NKU3DB28234AEAB Demand: 24 Idő: 0.67
+        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 100 Idő: 3.81
+PN: NKU3DB28146ACAA Demand: 100 Idő: 2.81
+PN: NKU3DB28234AEAB Demand: 24 Idő: 1.29
 </t>
       </text>
     </comment>
     <comment ref="BZ7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 1000 Idő: 28.1
-PN: NKU3DB28134AEAB Demand: 808 Idő: 22.71
-PN: NKU3DB28146ACAA Demand: 1000 Idő: 19.61
-PN: NKU3DB28234AEAB Demand: 1204 Idő: 33.84
-PN: NKU3DB28518ADAB Demand: 998 Idő: 8.26
-PN: NKU3DB28523ADAB Demand: 766 Idő: 10.35
+        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 0 Idő: 0.5
+PN: NKU3DB28134AEAB Demand: 808 Idő: 27.22
+PN: NKU3DB28146ACAA Demand: 0 Idő: 0.5
+PN: NKU3DB28234AEAB Demand: 0 Idő: 0.5
+PN: NKU3DB28518ADAB Demand: 998 Idő: 10.22
+PN: NKU3DB28523ADAB Demand: 766 Idő: 12.67
 </t>
       </text>
     </comment>
     <comment ref="CA7" authorId="1">
       <text>
-        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 100 Idő: 2.81
-PN: NKU3DB28146ACAA Demand: 100 Idő: 1.96
-PN: NKU3DB28234AEAB Demand: 24 Idő: 0.67
-</t>
-      </text>
-    </comment>
-    <comment ref="AA8" authorId="1">
-      <text>
-        <t xml:space="preserve">PN: LFACC3CM02929BBAA-HU Demand: 52 Idő: 0.68
-PN: LFACC3CM02929BBAA-HU Demand: 45 Idő: 0.59
+        <t xml:space="preserve">PN: NKU3DB28034AEAB Demand: 100 Idő: 3.81
+PN: NKU3DB28146ACAA Demand: 100 Idő: 2.81
+PN: NKU3DB28234AEAB Demand: 24 Idő: 1.29
 </t>
       </text>
     </comment>
     <comment ref="AB8" authorId="1">
       <text>
-        <t xml:space="preserve">PN: LFACC3CM02418ABAG Demand: 27 Idő: 0.34
+        <t xml:space="preserve">PN: LFACC3CM02929BBAA-HU Demand: 840 Idő: 29.21
+PN: LFACC3CM02929BBAA-HU Demand: 13 Idő: 0.94
 </t>
       </text>
     </comment>
     <comment ref="AC8" authorId="1">
       <text>
-        <t xml:space="preserve">PN: LFACC3CM03399EUBK Demand: 270 Idő: 18.07
+        <t xml:space="preserve">PN: LFACC3CM02418ABAG Demand: 27 Idő: 0.89
 </t>
       </text>
     </comment>
     <comment ref="AD8" authorId="1">
       <text>
-        <t xml:space="preserve">PN: LFACC3CM02407AEAC Demand: 283 Idő: 1.85
-PN: LFACC3CM02407AEAC Demand: 2 Idő: 0.01
-PN: LFACC3CM02628AAAB Demand: 284 Idő: 0.7
-PN: LFACC3CM02628AAAB Demand: 2 Idő: 0
-PN: LFACC3CM02929BBAA Demand: 97 Idő: 2.73
-</t>
-      </text>
-    </comment>
-    <comment ref="AC9" authorId="1">
-      <text>
-        <t xml:space="preserve">PN: LFTMOTCLE6244A Demand: 178 Idő: 9.48
-PN: LFTMOTCLE6244A Demand: 79 Idő: 4.21
-PN: LFTMOTCLE6245A Demand: 1764 Idő: 93.96
-PN: LFTMOTCLF6571A Demand: 367 Idő: 19.55
-PN: LFTMOTCLF6571A Demand: 3 Idő: 0.16
-PN: LFTMOTGMWE4318A Demand: 96 Idő: 4.58
-PN: LFTMOTGMWE4318A Demand: 1 Idő: 0.05
-PN: LFTMOTPA000194A01 Demand: 138 Idő: 0.45
+        <t xml:space="preserve">PN: LFACC3CM03399EUBK Demand: 270 Idő: 21.76
+PN: LFACC3CM02418ABAG Demand: 2 Idő: 0.53
+</t>
+      </text>
+    </comment>
+    <comment ref="AE8" authorId="1">
+      <text>
+        <t xml:space="preserve">PN: LFACC3CM02407AEAC Demand: 283 Idő: 2.68
+PN: LFACC3CM02407AEAC Demand: 2 Idő: 0.52
+PN: LFACC3CM02628AAAB Demand: 284 Idő: 1.32
+PN: LFACC3CM02628AAAB Demand: 2 Idő: 0.51
+PN: LFACC3CM02929BBAA Demand: 97 Idő: 3.71
+PN: LFACC3CM03399EUBK Demand: 3 Idő: 0.74
+PN: LFACC3CM03399EUBK Demand: 1 Idő: 0.58
+</t>
+      </text>
+    </comment>
+    <comment ref="AF8" authorId="1">
+      <text>
+        <t xml:space="preserve">PN: LFACC3CM02929BBAA Demand: 13 Idő: 0.93
 </t>
       </text>
     </comment>
     <comment ref="AD9" authorId="1">
       <text>
-        <t xml:space="preserve">PN: LFTMOTGMWD4318A Demand: 18 Idő: 0.25
-PN: LFTMOTGMWD4318A Demand: 1 Idő: 0.01
-</t>
-      </text>
-    </comment>
-    <comment ref="AF9" authorId="1">
-      <text>
-        <t xml:space="preserve">PN: LFTMOTCLE6245A Demand: 18 Idő: 0.96
-PN: LFTMOTCLE6244A Demand: 60 Idő: 3.2
-PN: LFTMOTCLE6245A Demand: 735 Idő: 39.15
-PN: LFTMOTCLF6571A Demand: 270 Idő: 14.38
-PN: LFTMOTGMWE4318A Demand: 60 Idő: 2.86
-PN: LFTMOTPA000194A01 Demand: 48 Idő: 0.16
-</t>
-      </text>
-    </comment>
-    <comment ref="AG9" authorId="1">
-      <text>
-        <t xml:space="preserve">PN: LFTMOTCLE6245A Demand: 295 Idő: 15.71
-</t>
-      </text>
-    </comment>
-    <comment ref="AX9" authorId="1">
-      <text>
-        <t xml:space="preserve">PN: LFTMOTGMWE4318A Demand: 20 Idő: 0.95
-</t>
-      </text>
-    </comment>
-    <comment ref="AY9" authorId="1">
-      <text>
-        <t xml:space="preserve">PN: LFTMOTGMWE4318A Demand: 20 Idő: 0.95
-</t>
-      </text>
-    </comment>
-    <comment ref="BH9" authorId="1">
-      <text>
-        <t xml:space="preserve">PN: LFTMOTCLE6245A Demand: 30 Idő: 1.6
-</t>
-      </text>
-    </comment>
-    <comment ref="BL9" authorId="1">
-      <text>
-        <t xml:space="preserve">PN: LFTMOTCLE6245A Demand: 240 Idő: 12.78
-</t>
-      </text>
-    </comment>
-    <comment ref="BP9" authorId="1">
-      <text>
-        <t xml:space="preserve">PN: LFTMOTCLE6245A Demand: 120 Idő: 6.39
-</t>
-      </text>
-    </comment>
-    <comment ref="BT9" authorId="1">
-      <text>
-        <t xml:space="preserve">PN: LFTMOTCLE6245A Demand: 90 Idő: 4.79
-PN: LFTMOTCLF6571A Demand: 360 Idő: 19.18
-</t>
-      </text>
-    </comment>
-    <comment ref="BY9" authorId="1">
-      <text>
-        <t xml:space="preserve">PN: LFTMOTCLE6244A Demand: 60 Idő: 3.2
-PN: LFTMOTCLE6245A Demand: 270 Idő: 14.38
-PN: LFTMOTCLF6571A Demand: 30 Idő: 1.6
-</t>
-      </text>
-    </comment>
-    <comment ref="CC9" authorId="1">
-      <text>
-        <t xml:space="preserve">PN: LFTMOTCLE6244A Demand: 30 Idő: 1.6
-PN: LFTMOTCLE6245A Demand: 150 Idő: 7.99
+        <t xml:space="preserve">PN: LFPRT06860J Demand: 658 Idő: 0.5
+PN: LFPRT06880J Demand: 267 Idő: 0.5
+PN: LFPRT06890J Demand: 0 Idő: 0.5
 </t>
       </text>
     </comment>
     <comment ref="AD10" authorId="1">
       <text>
-        <t xml:space="preserve">PN: LFAFR3DB20097BCAA Demand: 326 Idő: 0.7
-PN: LFAFR3DB20445BDAA Demand: 208 Idő: 0.88
-PN: LFAFR3DB20971BCAA Demand: 227 Idő: 0.93
-PN: LFAFR3DB20097BCAA Demand: 633 Idő: 1.36
-PN: LFAFR3DB20445BDAA Demand: 255 Idő: 1.08
-PN: LFAFR3DB20971BCAA Demand: 48 Idő: 0.2
-</t>
-      </text>
-    </comment>
-    <comment ref="BB10" authorId="1">
-      <text>
-        <t xml:space="preserve">PN: LFAFR3DB20097BCAA Demand: 120 Idő: 0.26
-PN: LFAFR3DB20445BDAA Demand: 40 Idő: 0.17
-PN: LFAFR3DB20971BCAA Demand: 80 Idő: 0.33
-</t>
-      </text>
-    </comment>
-    <comment ref="BG10" authorId="1">
-      <text>
-        <t xml:space="preserve">PN: LFAFR3DB20097BCAA Demand: 120 Idő: 0.26
-PN: LFAFR3DB20445BDAA Demand: 40 Idő: 0.17
-PN: LFAFR3DB20971BCAA Demand: 80 Idő: 0.33
-</t>
-      </text>
-    </comment>
-    <comment ref="BK10" authorId="1">
-      <text>
-        <t xml:space="preserve">PN: LFAFR3DB20097BCAA Demand: 120 Idő: 0.26
-PN: LFAFR3DB20445BDAA Demand: 40 Idő: 0.17
-PN: LFAFR3DB20971BCAA Demand: 80 Idő: 0.33
+        <t xml:space="preserve">PN: LFTMOTCLE6245A Demand: 560 Idő: 35.59
+</t>
+      </text>
+    </comment>
+    <comment ref="AE10" authorId="1">
+      <text>
+        <t xml:space="preserve">PN: LFTMOTCLE6244A Demand: 178 Idő: 11.65
+PN: LFTMOTCLE6244A Demand: 79 Idő: 5.45
+PN: LFTMOTCLE6245A Demand: 0 Idő: 0.5
+PN: LFTMOTCLF6571A Demand: 367 Idő: 23.5
+PN: LFTMOTCLF6571A Demand: 3 Idő: 0.69
+PN: LFTMOTGMWD4318A Demand: 18 Idő: 0.8
+PN: LFTMOTGMWD4318A Demand: 1 Idő: 0.52
+PN: LFTMOTGMWE4318A Demand: 97 Idő: 5.94
+PN: LFTMOTPA000194A01 Demand: 138 Idő: 1.03
+PN: LFTMOTCLE6245A Demand: 18 Idő: 1.63
+PN: LFTMOTCLE6245A Demand: 1 Idő: 0.56
+PN: LFTMOTCLF6571A Demand: 1 Idő: 0.56
+PN: LFTMOTCLF6571A Demand: 1 Idő: 0.56
+PN: LFTMOTGMWE4318A Demand: 1 Idő: 0.56
+PN: LFTMOTCLF6571A Demand: 1 Idő: 0.56
+PN: LFTMOTGMWE4318A Demand: 2 Idő: 0.61
+</t>
+      </text>
+    </comment>
+    <comment ref="AF10" authorId="1">
+      <text>
+        <t xml:space="preserve">PN: LFTMOTCLE6244A Demand: 60 Idő: 4.26
+PN: LFTMOTCLE6245A Demand: 0 Idő: 0.5
+PN: LFTMOTCLF6571A Demand: 270 Idő: 17.42
+PN: LFTMOTGMWE4318A Demand: 60 Idő: 3.87
+PN: LFTMOTPA000194A01 Demand: 48 Idő: 0.68
+PN: LFTMOTGMWD4318A Demand: 1 Idő: 0.52
+</t>
+      </text>
+    </comment>
+    <comment ref="AW10" authorId="1">
+      <text>
+        <t xml:space="preserve">PN: LFTMOTGMWE4318A Demand: 20 Idő: 1.62
+</t>
+      </text>
+    </comment>
+    <comment ref="AX10" authorId="1">
+      <text>
+        <t xml:space="preserve">PN: LFTMOTGMWE4318A Demand: 20 Idő: 1.62
+</t>
+      </text>
+    </comment>
+    <comment ref="AY10" authorId="1">
+      <text>
+        <t xml:space="preserve">PN: LFTMOTGMWE4318A Demand: 20 Idő: 1.62
+</t>
+      </text>
+    </comment>
+    <comment ref="BH10" authorId="1">
+      <text>
+        <t xml:space="preserve">PN: LFTMOTCLE6245A Demand: 30 Idő: 2.38
+</t>
+      </text>
+    </comment>
+    <comment ref="BL10" authorId="1">
+      <text>
+        <t xml:space="preserve">PN: LFTMOTCLE6245A Demand: 240 Idő: 15.54
 </t>
       </text>
     </comment>
     <comment ref="BP10" authorId="1">
       <text>
-        <t xml:space="preserve">PN: LFAFR3DB20097BCAA Demand: 120 Idő: 0.26
-PN: LFAFR3DB20445BDAA Demand: 40 Idő: 0.17
-PN: LFAFR3DB20971BCAA Demand: 80 Idő: 0.33
+        <t xml:space="preserve">PN: LFTMOTCLE6245A Demand: 120 Idő: 8.02
 </t>
       </text>
     </comment>
     <comment ref="BT10" authorId="1">
       <text>
-        <t xml:space="preserve">PN: LFAFR3DB20097BCAA Demand: 120 Idő: 0.26
-PN: LFAFR3DB20445BDAA Demand: 40 Idő: 0.17
-PN: LFAFR3DB20971BCAA Demand: 80 Idő: 0.33
-</t>
-      </text>
-    </comment>
-    <comment ref="AD11" authorId="1">
-      <text>
-        <t xml:space="preserve">PN: LFPRT06860J Demand: 658 Idő: 
-PN: LFPRT06880J Demand: 267 Idő: 
-PN: LFPRT06890J Demand: 1049 Idő: 
+        <t xml:space="preserve">PN: LFTMOTCLE6245A Demand: 90 Idő: 6.14
+PN: LFTMOTCLF6571A Demand: 360 Idő: 23.06
+</t>
+      </text>
+    </comment>
+    <comment ref="BY10" authorId="1">
+      <text>
+        <t xml:space="preserve">PN: LFTMOTCLE6244A Demand: 60 Idő: 4.26
+PN: LFTMOTCLE6245A Demand: 270 Idő: 17.42
+PN: LFTMOTCLF6571A Demand: 30 Idő: 2.38
+</t>
+      </text>
+    </comment>
+    <comment ref="CC10" authorId="1">
+      <text>
+        <t xml:space="preserve">PN: LFTMOTCLE6244A Demand: 30 Idő: 2.38
+PN: LFTMOTCLE6245A Demand: 150 Idő: 9.9
+</t>
+      </text>
+    </comment>
+    <comment ref="AE11" authorId="1">
+      <text>
+        <t xml:space="preserve">PN: LFAFR3DB20097BCAA Demand: 840 Idő: 2.63
+PN: LFAFR3DB20097BCAA Demand: 178 Idő: 0.95
+PN: LFAFR3DB20445BDAA Demand: 443 Idő: 2.71
+PN: LFAFR3DB20445BDAA Demand: 20 Idő: 0.6
+PN: LFAFR3DB20971BCAA Demand: 299 Idő: 1.94
+PN: LFAFR3DB20971BCAA Demand: 35 Idő: 0.67
+PN: LFAFR3DB20097BCAA Demand: 2 Idő: 0.51
+PN: LFAFR3DB20097BCAA Demand: 6 Idő: 0.52
+PN: LFAFR3DB20097BCAA Demand: 2 Idő: 0.51
+PN: LFAFR3DB20097BCAA Demand: 8 Idő: 0.52
+PN: LFAFR3DB20097BCAA Demand: 14 Idő: 0.54
+PN: LFAFR3DB20314BBAA Demand: 10 Idő: 0.55
+PN: LFAFR3DB20314BBAA Demand: 150 Idő: 1.19
+PN: LFAFR3DB20445BDAA Demand: 3 Idő: 0.51
+PN: LFAFR3DB20925BCAA Demand: 1 Idő: 0.5
+PN: LFAFR3DB20925BCAA Demand: 6 Idő: 0.53
+PN: LFAFR3DB20925BCAA Demand: 4 Idő: 0.52
+PN: LFAFR3DB20971BCAA Demand: 8 Idő: 0.54
+PN: LFAFR3DB20971BCAA Demand: 2 Idő: 0.51
+PN: LFAFR3DB20097BCAA Demand: 17 Idő: 0.54
+PN: LFAFR3DB20314BBAA Demand: 11 Idő: 0.55
+PN: LFAFR3DB20971BCAA Demand: 1 Idő: 0.5
+</t>
+      </text>
+    </comment>
+    <comment ref="BB11" authorId="1">
+      <text>
+        <t xml:space="preserve">PN: LFAFR3DB20097BCAA Demand: 120 Idő: 0.8
+PN: LFAFR3DB20445BDAA Demand: 40 Idő: 0.7
+PN: LFAFR3DB20971BCAA Demand: 80 Idő: 0.88
+</t>
+      </text>
+    </comment>
+    <comment ref="BG11" authorId="1">
+      <text>
+        <t xml:space="preserve">PN: LFAFR3DB20097BCAA Demand: 120 Idő: 0.8
+PN: LFAFR3DB20445BDAA Demand: 40 Idő: 0.7
+PN: LFAFR3DB20971BCAA Demand: 80 Idő: 0.88
+</t>
+      </text>
+    </comment>
+    <comment ref="BK11" authorId="1">
+      <text>
+        <t xml:space="preserve">PN: LFAFR3DB20097BCAA Demand: 120 Idő: 0.8
+PN: LFAFR3DB20445BDAA Demand: 40 Idő: 0.7
+PN: LFAFR3DB20971BCAA Demand: 80 Idő: 0.88
+</t>
+      </text>
+    </comment>
+    <comment ref="BP11" authorId="1">
+      <text>
+        <t xml:space="preserve">PN: LFAFR3DB20097BCAA Demand: 120 Idő: 0.8
+PN: LFAFR3DB20445BDAA Demand: 40 Idő: 0.7
+PN: LFAFR3DB20971BCAA Demand: 80 Idő: 0.88
+</t>
+      </text>
+    </comment>
+    <comment ref="BT11" authorId="1">
+      <text>
+        <t xml:space="preserve">PN: LFAFR3DB20097BCAA Demand: 120 Idő: 0.8
+PN: LFAFR3DB20445BDAA Demand: 40 Idő: 0.7
+PN: LFAFR3DB20971BCAA Demand: 80 Idő: 0.88
+</t>
+      </text>
+    </comment>
+    <comment ref="AE12" authorId="1">
+      <text>
+        <t xml:space="preserve">PN: LFTEKTCU5260R14 Demand: 1 Idő: 0.51
+PN: LFTEKTCU5260R14 Demand: 16 Idő: 0.64
 </t>
       </text>
     </comment>
@@ -1367,7 +1398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Neve: j</t>
   </si>
@@ -1375,7 +1406,7 @@
     <t>Eff: 0.85</t>
   </si>
   <si>
-    <t>Tárazás: 1.0</t>
+    <t>Tárazás: 0.5</t>
   </si>
   <si>
     <t>Prefix</t>
@@ -1393,13 +1424,16 @@
     <t>LFACC</t>
   </si>
   <si>
+    <t>LFPRT</t>
+  </si>
+  <si>
     <t>LFTMO</t>
   </si>
   <si>
     <t>LFAFR</t>
   </si>
   <si>
-    <t>LFPRT</t>
+    <t>LFTEK</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1441,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="80">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1420,8 +1454,398 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1430,12 +1854,32 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="17"/>
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -1451,9 +1895,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="57" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="61" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="62" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="63" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="65" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="66" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="67" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="68" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="70" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="72" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="73" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="74" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="75" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="76" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="77" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="78" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="79" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1464,7 +1990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:CC11"/>
+  <dimension ref="B3:CC12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1482,244 +2008,244 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>2001.0</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>2002.0</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="3" t="n">
         <v>2003.0</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="4" t="n">
         <v>2004.0</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="5" t="n">
         <v>2005.0</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="6" t="n">
         <v>2006.0</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="7" t="n">
         <v>2007.0</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="8" t="n">
         <v>2008.0</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="9" t="n">
         <v>2009.0</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L4" s="10" t="n">
         <v>2010.0</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="M4" s="11" t="n">
         <v>2011.0</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="N4" s="12" t="n">
         <v>2012.0</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="O4" s="13" t="n">
         <v>2013.0</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="P4" s="14" t="n">
         <v>2014.0</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" s="15" t="n">
         <v>2015.0</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="R4" s="16" t="n">
         <v>2016.0</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="S4" s="17" t="n">
         <v>2017.0</v>
       </c>
-      <c r="T4" s="1" t="n">
+      <c r="T4" s="18" t="n">
         <v>2018.0</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="U4" s="19" t="n">
         <v>2019.0</v>
       </c>
-      <c r="V4" s="1" t="n">
+      <c r="V4" s="20" t="n">
         <v>2020.0</v>
       </c>
-      <c r="W4" s="1" t="n">
+      <c r="W4" s="21" t="n">
         <v>2021.0</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="X4" s="22" t="n">
         <v>2022.0</v>
       </c>
-      <c r="Y4" s="1" t="n">
+      <c r="Y4" s="23" t="n">
         <v>2023.0</v>
       </c>
-      <c r="Z4" s="1" t="n">
+      <c r="Z4" s="24" t="n">
         <v>2024.0</v>
       </c>
-      <c r="AA4" s="1" t="n">
+      <c r="AA4" s="25" t="n">
         <v>2025.0</v>
       </c>
-      <c r="AB4" s="1" t="n">
+      <c r="AB4" s="26" t="n">
         <v>2026.0</v>
       </c>
-      <c r="AC4" s="1" t="n">
+      <c r="AC4" s="27" t="n">
         <v>2027.0</v>
       </c>
-      <c r="AD4" s="1" t="n">
+      <c r="AD4" s="28" t="n">
         <v>2028.0</v>
       </c>
-      <c r="AE4" s="1" t="n">
+      <c r="AE4" s="29" t="n">
         <v>2029.0</v>
       </c>
-      <c r="AF4" s="1" t="n">
+      <c r="AF4" s="30" t="n">
         <v>2030.0</v>
       </c>
-      <c r="AG4" s="1" t="n">
+      <c r="AG4" s="31" t="n">
         <v>2031.0</v>
       </c>
-      <c r="AH4" s="1" t="n">
+      <c r="AH4" s="32" t="n">
         <v>2032.0</v>
       </c>
-      <c r="AI4" s="1" t="n">
+      <c r="AI4" s="33" t="n">
         <v>2033.0</v>
       </c>
-      <c r="AJ4" s="1" t="n">
+      <c r="AJ4" s="34" t="n">
         <v>2034.0</v>
       </c>
-      <c r="AK4" s="1" t="n">
+      <c r="AK4" s="35" t="n">
         <v>2035.0</v>
       </c>
-      <c r="AL4" s="1" t="n">
+      <c r="AL4" s="36" t="n">
         <v>2036.0</v>
       </c>
-      <c r="AM4" s="1" t="n">
+      <c r="AM4" s="37" t="n">
         <v>2037.0</v>
       </c>
-      <c r="AN4" s="1" t="n">
+      <c r="AN4" s="38" t="n">
         <v>2038.0</v>
       </c>
-      <c r="AO4" s="1" t="n">
+      <c r="AO4" s="39" t="n">
         <v>2039.0</v>
       </c>
-      <c r="AP4" s="1" t="n">
+      <c r="AP4" s="40" t="n">
         <v>2040.0</v>
       </c>
-      <c r="AQ4" s="1" t="n">
+      <c r="AQ4" s="41" t="n">
         <v>2041.0</v>
       </c>
-      <c r="AR4" s="1" t="n">
+      <c r="AR4" s="42" t="n">
         <v>2042.0</v>
       </c>
-      <c r="AS4" s="1" t="n">
+      <c r="AS4" s="43" t="n">
         <v>2043.0</v>
       </c>
-      <c r="AT4" s="1" t="n">
+      <c r="AT4" s="44" t="n">
         <v>2044.0</v>
       </c>
-      <c r="AU4" s="1" t="n">
+      <c r="AU4" s="45" t="n">
         <v>2045.0</v>
       </c>
-      <c r="AV4" s="1" t="n">
+      <c r="AV4" s="46" t="n">
         <v>2046.0</v>
       </c>
-      <c r="AW4" s="1" t="n">
+      <c r="AW4" s="47" t="n">
         <v>2047.0</v>
       </c>
-      <c r="AX4" s="1" t="n">
+      <c r="AX4" s="48" t="n">
         <v>2048.0</v>
       </c>
-      <c r="AY4" s="1" t="n">
+      <c r="AY4" s="49" t="n">
         <v>2049.0</v>
       </c>
-      <c r="AZ4" s="1" t="n">
+      <c r="AZ4" s="50" t="n">
         <v>2050.0</v>
       </c>
-      <c r="BA4" s="1" t="n">
+      <c r="BA4" s="51" t="n">
         <v>2051.0</v>
       </c>
-      <c r="BB4" s="1" t="n">
+      <c r="BB4" s="52" t="n">
         <v>2052.0</v>
       </c>
-      <c r="BC4" s="1" t="n">
+      <c r="BC4" s="53" t="n">
         <v>2053.0</v>
       </c>
-      <c r="BD4" s="1" t="n">
+      <c r="BD4" s="54" t="n">
         <v>2054.0</v>
       </c>
-      <c r="BE4" s="1" t="n">
+      <c r="BE4" s="55" t="n">
         <v>2101.0</v>
       </c>
-      <c r="BF4" s="1" t="n">
+      <c r="BF4" s="56" t="n">
         <v>2102.0</v>
       </c>
-      <c r="BG4" s="1" t="n">
+      <c r="BG4" s="57" t="n">
         <v>2103.0</v>
       </c>
-      <c r="BH4" s="1" t="n">
+      <c r="BH4" s="58" t="n">
         <v>2104.0</v>
       </c>
-      <c r="BI4" s="1" t="n">
+      <c r="BI4" s="59" t="n">
         <v>2105.0</v>
       </c>
-      <c r="BJ4" s="1" t="n">
+      <c r="BJ4" s="60" t="n">
         <v>2106.0</v>
       </c>
-      <c r="BK4" s="1" t="n">
+      <c r="BK4" s="61" t="n">
         <v>2107.0</v>
       </c>
-      <c r="BL4" s="1" t="n">
+      <c r="BL4" s="62" t="n">
         <v>2108.0</v>
       </c>
-      <c r="BM4" s="1" t="n">
+      <c r="BM4" s="63" t="n">
         <v>2109.0</v>
       </c>
-      <c r="BN4" s="1" t="n">
+      <c r="BN4" s="64" t="n">
         <v>2110.0</v>
       </c>
-      <c r="BO4" s="1" t="n">
+      <c r="BO4" s="65" t="n">
         <v>2111.0</v>
       </c>
-      <c r="BP4" s="1" t="n">
+      <c r="BP4" s="66" t="n">
         <v>2112.0</v>
       </c>
-      <c r="BQ4" s="1" t="n">
+      <c r="BQ4" s="67" t="n">
         <v>2113.0</v>
       </c>
-      <c r="BR4" s="1" t="n">
+      <c r="BR4" s="68" t="n">
         <v>2114.0</v>
       </c>
-      <c r="BS4" s="1" t="n">
+      <c r="BS4" s="69" t="n">
         <v>2115.0</v>
       </c>
-      <c r="BT4" s="1" t="n">
+      <c r="BT4" s="70" t="n">
         <v>2116.0</v>
       </c>
-      <c r="BU4" s="1" t="n">
+      <c r="BU4" s="71" t="n">
         <v>2117.0</v>
       </c>
-      <c r="BV4" s="1" t="n">
+      <c r="BV4" s="72" t="n">
         <v>2118.0</v>
       </c>
-      <c r="BW4" s="1" t="n">
+      <c r="BW4" s="73" t="n">
         <v>2119.0</v>
       </c>
-      <c r="BX4" s="1" t="n">
+      <c r="BX4" s="74" t="n">
         <v>2120.0</v>
       </c>
-      <c r="BY4" s="1" t="n">
+      <c r="BY4" s="75" t="n">
         <v>2121.0</v>
       </c>
-      <c r="BZ4" s="1" t="n">
+      <c r="BZ4" s="76" t="n">
         <v>2122.0</v>
       </c>
-      <c r="CA4" s="1" t="n">
+      <c r="CA4" s="77" t="n">
         <v>2123.0</v>
       </c>
-      <c r="CB4" s="1" t="n">
+      <c r="CB4" s="78" t="n">
         <v>2124.0</v>
       </c>
-      <c r="CC4" s="1" t="n">
+      <c r="CC4" s="79" t="n">
         <v>2125.0</v>
       </c>
     </row>
@@ -1728,7 +2254,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>17.12</v>
+        <v>9.2</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -1800,88 +2326,88 @@
         <v>0.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.39</v>
+        <v>0.0</v>
+      </c>
+      <c r="AB5" t="n" s="81">
+        <v>30.15</v>
       </c>
       <c r="AC5" t="n">
-        <v>235.23</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>101.97</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>52.84</v>
+        <v>0.89</v>
+      </c>
+      <c r="AD5" t="n" s="82">
+        <v>135.31</v>
+      </c>
+      <c r="AE5" t="n" s="83">
+        <v>158.69</v>
       </c>
       <c r="AF5" t="n">
-        <v>148.18</v>
+        <v>66.83</v>
       </c>
       <c r="AG5" t="n">
-        <v>98.55</v>
+        <v>31.83</v>
       </c>
       <c r="AH5" t="n">
-        <v>20.84</v>
+        <v>8.44</v>
       </c>
       <c r="AI5" t="n">
-        <v>24.72</v>
+        <v>18.42</v>
       </c>
       <c r="AJ5" t="n">
-        <v>33.56</v>
+        <v>31.99</v>
       </c>
       <c r="AK5" t="n">
-        <v>90.17</v>
+        <v>31.6</v>
       </c>
       <c r="AL5" t="n">
-        <v>12.79</v>
+        <v>11.02</v>
       </c>
       <c r="AM5" t="n">
         <v>0.0</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.63</v>
+        <v>6.13</v>
       </c>
       <c r="AO5" t="n">
-        <v>117.36</v>
+        <v>121.68</v>
       </c>
       <c r="AP5" t="n">
-        <v>18.79</v>
+        <v>22.48</v>
       </c>
       <c r="AQ5" t="n">
-        <v>4.05</v>
+        <v>5.43</v>
       </c>
       <c r="AR5" t="n">
-        <v>10.19</v>
+        <v>7.19</v>
       </c>
       <c r="AS5" t="n">
-        <v>118.88</v>
+        <v>101.83</v>
       </c>
       <c r="AT5" t="n">
-        <v>18.79</v>
+        <v>10.92</v>
       </c>
       <c r="AU5" t="n">
-        <v>4.05</v>
+        <v>5.43</v>
       </c>
       <c r="AV5" t="n">
         <v>0.0</v>
       </c>
       <c r="AW5" t="n">
-        <v>8.37</v>
+        <v>7.49</v>
       </c>
       <c r="AX5" t="n">
-        <v>120.89</v>
+        <v>104.19</v>
       </c>
       <c r="AY5" t="n">
-        <v>25.88</v>
+        <v>12.41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4.98</v>
+        <v>4.85</v>
       </c>
       <c r="BA5" t="n">
-        <v>7.06</v>
+        <v>4.56</v>
       </c>
       <c r="BB5" t="n">
-        <v>183.03</v>
+        <v>36.68</v>
       </c>
       <c r="BC5" t="n">
         <v>0.0</v>
@@ -1893,55 +2419,55 @@
         <v>0.0</v>
       </c>
       <c r="BF5" t="n">
-        <v>4.08</v>
+        <v>6.48</v>
       </c>
       <c r="BG5" t="n">
-        <v>12.2</v>
+        <v>7.7</v>
       </c>
       <c r="BH5" t="n">
-        <v>182.03</v>
+        <v>36.68</v>
       </c>
       <c r="BI5" t="n">
-        <v>17.12</v>
+        <v>9.2</v>
       </c>
       <c r="BJ5" t="n">
-        <v>4.08</v>
+        <v>6.48</v>
       </c>
       <c r="BK5" t="n">
-        <v>3.88</v>
+        <v>2.38</v>
       </c>
       <c r="BL5" t="n">
-        <v>173.48</v>
+        <v>39.41</v>
       </c>
       <c r="BM5" t="n">
-        <v>36.84</v>
+        <v>21.72</v>
       </c>
       <c r="BN5" t="n">
-        <v>7.04</v>
+        <v>1.17</v>
       </c>
       <c r="BO5" t="n">
-        <v>3.92</v>
+        <v>5.79</v>
       </c>
       <c r="BP5" t="n">
-        <v>12.4</v>
+        <v>10.4</v>
       </c>
       <c r="BQ5" t="n">
-        <v>159.27</v>
+        <v>24.89</v>
       </c>
       <c r="BR5" t="n">
-        <v>9.41</v>
+        <v>7.91</v>
       </c>
       <c r="BS5" t="n">
         <v>0.0</v>
       </c>
       <c r="BT5" t="n">
-        <v>35.34</v>
+        <v>32.34</v>
       </c>
       <c r="BU5" t="n">
-        <v>150.55</v>
+        <v>51.61</v>
       </c>
       <c r="BV5" t="n">
-        <v>9.41</v>
+        <v>7.91</v>
       </c>
       <c r="BW5" t="n">
         <v>0.0</v>
@@ -1950,19 +2476,19 @@
         <v>0.0</v>
       </c>
       <c r="BY5" t="n">
-        <v>25.56</v>
+        <v>24.06</v>
       </c>
       <c r="BZ5" t="n">
-        <v>150.55</v>
+        <v>51.61</v>
       </c>
       <c r="CA5" t="n">
-        <v>9.41</v>
+        <v>7.91</v>
       </c>
       <c r="CB5" t="n">
         <v>0.0</v>
       </c>
       <c r="CC5" t="n">
-        <v>13.28</v>
+        <v>12.28</v>
       </c>
     </row>
     <row r="6">
@@ -1970,7 +2496,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.71</v>
+        <v>1.29</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -1997,108 +2523,106 @@
       <c r="Z6"/>
       <c r="AA6"/>
       <c r="AB6"/>
-      <c r="AC6" t="n">
-        <v>49.15</v>
-      </c>
+      <c r="AC6"/>
       <c r="AD6" t="n">
-        <v>5.96</v>
+        <v>37.72</v>
       </c>
       <c r="AE6" t="n">
-        <v>24.03</v>
+        <v>31.26</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.22</v>
+        <v>3.97</v>
       </c>
       <c r="AG6" t="n">
-        <v>3.77</v>
+        <v>6.94</v>
       </c>
       <c r="AH6"/>
       <c r="AI6" t="n">
-        <v>7.44</v>
+        <v>2.14</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21.24</v>
+        <v>20.67</v>
       </c>
       <c r="AK6" t="n">
-        <v>6.05</v>
+        <v>1.73</v>
       </c>
       <c r="AL6" t="n">
-        <v>3.85</v>
+        <v>4.17</v>
       </c>
       <c r="AM6"/>
       <c r="AN6" t="n">
-        <v>8.63</v>
+        <v>6.13</v>
       </c>
       <c r="AO6" t="n">
-        <v>23.54</v>
+        <v>11.64</v>
       </c>
       <c r="AP6" t="n">
-        <v>8.58</v>
+        <v>2.21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4.05</v>
+        <v>5.43</v>
       </c>
       <c r="AR6" t="n">
-        <v>8.93</v>
+        <v>6.43</v>
       </c>
       <c r="AS6" t="n">
-        <v>27.27</v>
+        <v>13.22</v>
       </c>
       <c r="AT6" t="n">
-        <v>8.58</v>
+        <v>2.21</v>
       </c>
       <c r="AU6" t="n">
-        <v>4.05</v>
+        <v>5.43</v>
       </c>
       <c r="AV6"/>
       <c r="AW6" t="n">
-        <v>8.37</v>
+        <v>5.87</v>
       </c>
       <c r="AX6" t="n">
-        <v>26.36</v>
+        <v>13.16</v>
       </c>
       <c r="AY6" t="n">
-        <v>13.55</v>
+        <v>2.08</v>
       </c>
       <c r="AZ6" t="n">
-        <v>4.98</v>
+        <v>4.85</v>
       </c>
       <c r="BA6" t="n">
-        <v>7.06</v>
+        <v>4.56</v>
       </c>
       <c r="BB6" t="n">
-        <v>28.48</v>
+        <v>14.7</v>
       </c>
       <c r="BC6"/>
       <c r="BD6"/>
       <c r="BE6"/>
       <c r="BF6" t="n">
-        <v>4.08</v>
+        <v>6.48</v>
       </c>
       <c r="BG6" t="n">
-        <v>7.06</v>
+        <v>4.56</v>
       </c>
       <c r="BH6" t="n">
-        <v>28.48</v>
+        <v>14.7</v>
       </c>
       <c r="BI6" t="n">
-        <v>7.71</v>
+        <v>1.29</v>
       </c>
       <c r="BJ6" t="n">
-        <v>4.08</v>
+        <v>6.48</v>
       </c>
       <c r="BK6"/>
       <c r="BL6" t="n">
-        <v>6.77</v>
+        <v>4.27</v>
       </c>
       <c r="BM6" t="n">
-        <v>27.43</v>
+        <v>13.81</v>
       </c>
       <c r="BN6" t="n">
-        <v>7.04</v>
+        <v>1.17</v>
       </c>
       <c r="BO6" t="n">
-        <v>3.92</v>
+        <v>5.79</v>
       </c>
       <c r="BP6"/>
       <c r="BQ6"/>
@@ -2120,7 +2644,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>9.41</v>
+        <v>7.91</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -2149,112 +2673,112 @@
       <c r="AB7"/>
       <c r="AC7"/>
       <c r="AD7" t="n">
-        <v>70.4</v>
+        <v>39.71</v>
       </c>
       <c r="AE7" t="n">
-        <v>28.81</v>
+        <v>42.56</v>
       </c>
       <c r="AF7" t="n">
-        <v>62.54</v>
+        <v>34.68</v>
       </c>
       <c r="AG7" t="n">
-        <v>75.29</v>
+        <v>24.89</v>
       </c>
       <c r="AH7" t="n">
-        <v>20.84</v>
+        <v>8.44</v>
       </c>
       <c r="AI7" t="n">
-        <v>17.28</v>
+        <v>16.28</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12.32</v>
+        <v>11.32</v>
       </c>
       <c r="AK7" t="n">
-        <v>84.12</v>
+        <v>29.87</v>
       </c>
       <c r="AL7" t="n">
-        <v>8.94</v>
+        <v>6.85</v>
       </c>
       <c r="AM7"/>
       <c r="AN7"/>
       <c r="AO7" t="n">
-        <v>93.82</v>
+        <v>110.04</v>
       </c>
       <c r="AP7" t="n">
-        <v>10.21</v>
+        <v>20.27</v>
       </c>
       <c r="AQ7"/>
       <c r="AR7" t="n">
-        <v>1.26</v>
+        <v>0.76</v>
       </c>
       <c r="AS7" t="n">
-        <v>91.61</v>
+        <v>88.61</v>
       </c>
       <c r="AT7" t="n">
-        <v>10.21</v>
+        <v>8.71</v>
       </c>
       <c r="AU7"/>
       <c r="AV7"/>
       <c r="AW7"/>
       <c r="AX7" t="n">
-        <v>92.41</v>
+        <v>89.41</v>
       </c>
       <c r="AY7" t="n">
-        <v>10.21</v>
+        <v>8.71</v>
       </c>
       <c r="AZ7"/>
       <c r="BA7"/>
       <c r="BB7" t="n">
-        <v>150.67</v>
+        <v>19.6</v>
       </c>
       <c r="BC7"/>
       <c r="BD7"/>
       <c r="BE7"/>
       <c r="BF7"/>
       <c r="BG7" t="n">
-        <v>1.26</v>
+        <v>0.76</v>
       </c>
       <c r="BH7" t="n">
-        <v>150.67</v>
+        <v>19.6</v>
       </c>
       <c r="BI7" t="n">
-        <v>9.41</v>
+        <v>7.91</v>
       </c>
       <c r="BJ7"/>
       <c r="BK7"/>
       <c r="BL7" t="n">
-        <v>150.67</v>
+        <v>19.6</v>
       </c>
       <c r="BM7" t="n">
-        <v>9.41</v>
+        <v>7.91</v>
       </c>
       <c r="BN7"/>
       <c r="BO7"/>
       <c r="BP7"/>
       <c r="BQ7" t="n">
-        <v>159.27</v>
+        <v>24.89</v>
       </c>
       <c r="BR7" t="n">
-        <v>9.41</v>
+        <v>7.91</v>
       </c>
       <c r="BS7"/>
       <c r="BT7" t="n">
-        <v>1.26</v>
+        <v>0.76</v>
       </c>
       <c r="BU7" t="n">
-        <v>150.55</v>
+        <v>51.61</v>
       </c>
       <c r="BV7" t="n">
-        <v>9.41</v>
+        <v>7.91</v>
       </c>
       <c r="BW7"/>
       <c r="BX7"/>
       <c r="BY7"/>
       <c r="BZ7" t="n">
-        <v>150.55</v>
+        <v>51.61</v>
       </c>
       <c r="CA7" t="n">
-        <v>9.41</v>
+        <v>7.91</v>
       </c>
       <c r="CB7"/>
       <c r="CC7"/>
@@ -2287,20 +2811,22 @@
       <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8"/>
-      <c r="AA8" t="n">
-        <v>4.98</v>
-      </c>
+      <c r="AA8"/>
       <c r="AB8" t="n">
-        <v>1.39</v>
+        <v>30.15</v>
       </c>
       <c r="AC8" t="n">
-        <v>22.26</v>
+        <v>0.89</v>
       </c>
       <c r="AD8" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="AE8"/>
-      <c r="AF8"/>
+        <v>22.29</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.93</v>
+      </c>
       <c r="AG8"/>
       <c r="AH8"/>
       <c r="AI8"/>
@@ -2381,19 +2907,13 @@
       <c r="Z9"/>
       <c r="AA9"/>
       <c r="AB9"/>
-      <c r="AC9" t="n">
-        <v>163.82</v>
-      </c>
+      <c r="AC9"/>
       <c r="AD9" t="n">
-        <v>2.32</v>
+        <v>0.0</v>
       </c>
       <c r="AE9"/>
-      <c r="AF9" t="n">
-        <v>77.42</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>19.49</v>
-      </c>
+      <c r="AF9"/>
+      <c r="AG9"/>
       <c r="AH9"/>
       <c r="AI9"/>
       <c r="AJ9"/>
@@ -2410,12 +2930,8 @@
       <c r="AU9"/>
       <c r="AV9"/>
       <c r="AW9"/>
-      <c r="AX9" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>2.12</v>
-      </c>
+      <c r="AX9"/>
+      <c r="AY9"/>
       <c r="AZ9"/>
       <c r="BA9"/>
       <c r="BB9"/>
@@ -2424,40 +2940,28 @@
       <c r="BE9"/>
       <c r="BF9"/>
       <c r="BG9"/>
-      <c r="BH9" t="n">
-        <v>2.88</v>
-      </c>
+      <c r="BH9"/>
       <c r="BI9"/>
       <c r="BJ9"/>
       <c r="BK9"/>
-      <c r="BL9" t="n">
-        <v>16.04</v>
-      </c>
+      <c r="BL9"/>
       <c r="BM9"/>
       <c r="BN9"/>
       <c r="BO9"/>
-      <c r="BP9" t="n">
-        <v>8.52</v>
-      </c>
+      <c r="BP9"/>
       <c r="BQ9"/>
       <c r="BR9"/>
       <c r="BS9"/>
-      <c r="BT9" t="n">
-        <v>30.2</v>
-      </c>
+      <c r="BT9"/>
       <c r="BU9"/>
       <c r="BV9"/>
       <c r="BW9"/>
       <c r="BX9"/>
-      <c r="BY9" t="n">
-        <v>25.56</v>
-      </c>
+      <c r="BY9"/>
       <c r="BZ9"/>
       <c r="CA9"/>
       <c r="CB9"/>
-      <c r="CC9" t="n">
-        <v>13.28</v>
-      </c>
+      <c r="CC9"/>
     </row>
     <row r="10">
       <c r="B10" t="s">
@@ -2491,10 +2995,14 @@
       <c r="AB10"/>
       <c r="AC10"/>
       <c r="AD10" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="AE10"/>
-      <c r="AF10"/>
+        <v>35.59</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>55.12</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>27.25</v>
+      </c>
       <c r="AG10"/>
       <c r="AH10"/>
       <c r="AI10"/>
@@ -2511,49 +3019,57 @@
       <c r="AT10"/>
       <c r="AU10"/>
       <c r="AV10"/>
-      <c r="AW10"/>
-      <c r="AX10"/>
-      <c r="AY10"/>
+      <c r="AW10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>1.62</v>
+      </c>
       <c r="AZ10"/>
       <c r="BA10"/>
-      <c r="BB10" t="n">
-        <v>3.88</v>
-      </c>
+      <c r="BB10"/>
       <c r="BC10"/>
       <c r="BD10"/>
       <c r="BE10"/>
       <c r="BF10"/>
-      <c r="BG10" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="BH10"/>
+      <c r="BG10"/>
+      <c r="BH10" t="n">
+        <v>2.38</v>
+      </c>
       <c r="BI10"/>
       <c r="BJ10"/>
-      <c r="BK10" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="BL10"/>
+      <c r="BK10"/>
+      <c r="BL10" t="n">
+        <v>15.54</v>
+      </c>
       <c r="BM10"/>
       <c r="BN10"/>
       <c r="BO10"/>
       <c r="BP10" t="n">
-        <v>3.88</v>
+        <v>8.02</v>
       </c>
       <c r="BQ10"/>
       <c r="BR10"/>
       <c r="BS10"/>
       <c r="BT10" t="n">
-        <v>3.88</v>
+        <v>29.2</v>
       </c>
       <c r="BU10"/>
       <c r="BV10"/>
       <c r="BW10"/>
       <c r="BX10"/>
-      <c r="BY10"/>
+      <c r="BY10" t="n">
+        <v>24.06</v>
+      </c>
       <c r="BZ10"/>
       <c r="CA10"/>
       <c r="CB10"/>
-      <c r="CC10"/>
+      <c r="CC10" t="n">
+        <v>12.28</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
@@ -2586,10 +3102,10 @@
       <c r="AA11"/>
       <c r="AB11"/>
       <c r="AC11"/>
-      <c r="AD11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE11"/>
+      <c r="AD11"/>
+      <c r="AE11" t="n">
+        <v>18.54</v>
+      </c>
       <c r="AF11"/>
       <c r="AG11"/>
       <c r="AH11"/>
@@ -2612,25 +3128,35 @@
       <c r="AY11"/>
       <c r="AZ11"/>
       <c r="BA11"/>
-      <c r="BB11"/>
+      <c r="BB11" t="n">
+        <v>2.38</v>
+      </c>
       <c r="BC11"/>
       <c r="BD11"/>
       <c r="BE11"/>
       <c r="BF11"/>
-      <c r="BG11"/>
+      <c r="BG11" t="n">
+        <v>2.38</v>
+      </c>
       <c r="BH11"/>
       <c r="BI11"/>
       <c r="BJ11"/>
-      <c r="BK11"/>
+      <c r="BK11" t="n">
+        <v>2.38</v>
+      </c>
       <c r="BL11"/>
       <c r="BM11"/>
       <c r="BN11"/>
       <c r="BO11"/>
-      <c r="BP11"/>
+      <c r="BP11" t="n">
+        <v>2.38</v>
+      </c>
       <c r="BQ11"/>
       <c r="BR11"/>
       <c r="BS11"/>
-      <c r="BT11"/>
+      <c r="BT11" t="n">
+        <v>2.38</v>
+      </c>
       <c r="BU11"/>
       <c r="BV11"/>
       <c r="BW11"/>
@@ -2640,6 +3166,92 @@
       <c r="CA11"/>
       <c r="CB11"/>
       <c r="CC11"/>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+      <c r="BK12"/>
+      <c r="BL12"/>
+      <c r="BM12"/>
+      <c r="BN12"/>
+      <c r="BO12"/>
+      <c r="BP12"/>
+      <c r="BQ12"/>
+      <c r="BR12"/>
+      <c r="BS12"/>
+      <c r="BT12"/>
+      <c r="BU12"/>
+      <c r="BV12"/>
+      <c r="BW12"/>
+      <c r="BX12"/>
+      <c r="BY12"/>
+      <c r="BZ12"/>
+      <c r="CA12"/>
+      <c r="CB12"/>
+      <c r="CC12"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
